--- a/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.18</t>
+    <t xml:space="preserve">EA 23.23 fix 1</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"

--- a/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="853">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">artist</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.24 fix 4</t>
+    <t xml:space="preserve">EA 23.25</t>
   </si>
   <si>
     <t xml:space="preserve">"You senseless bastard!"
@@ -137,7 +137,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t xml:space="preserve">"Aaah!"</t>
@@ -430,7 +430,7 @@
     <t xml:space="preserve">「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t xml:space="preserve">「フシューッ」
@@ -2286,7 +2286,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t xml:space="preserve">Little Sister: "Kill! Kill!"
@@ -4230,7 +4230,7 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>611</v>
@@ -4569,7 +4569,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>619</v>
@@ -7430,7 +7430,7 @@
         <v>498</v>
       </c>
       <c r="B90" t="s">
-        <v>593</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
         <v>669</v>

--- a/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="852">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -2722,9 +2722,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.12</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.86</t>
@@ -4134,7 +4131,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -4143,7 +4140,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4152,7 +4149,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4169,7 +4166,7 @@
         <v>591</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -4180,7 +4177,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
@@ -4189,7 +4186,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4208,7 +4205,7 @@
         <v>592</v>
       </c>
       <c r="C5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
@@ -4233,7 +4230,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -4246,7 +4243,7 @@
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4255,7 +4252,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4272,7 +4269,7 @@
         <v>590</v>
       </c>
       <c r="C7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -4283,7 +4280,7 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -4292,7 +4289,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4311,7 +4308,7 @@
         <v>590</v>
       </c>
       <c r="C8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -4322,7 +4319,7 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -4331,7 +4328,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4340,7 +4337,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4357,7 +4354,7 @@
         <v>590</v>
       </c>
       <c r="C9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -4368,7 +4365,7 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -4377,7 +4374,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4386,7 +4383,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4403,7 +4400,7 @@
         <v>590</v>
       </c>
       <c r="C10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -4414,21 +4411,21 @@
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
@@ -4440,10 +4437,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -4454,7 +4451,7 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J11" t="s">
         <v>74</v>
@@ -4463,7 +4460,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4472,7 +4469,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4486,10 +4483,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -4500,7 +4497,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -4509,7 +4506,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4518,7 +4515,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4535,7 +4532,7 @@
         <v>592</v>
       </c>
       <c r="C13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -4553,7 +4550,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4572,7 +4569,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -4583,7 +4580,7 @@
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J14" t="s">
         <v>74</v>
@@ -4592,7 +4589,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4601,7 +4598,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4615,10 +4612,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -4654,14 +4651,14 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -4670,7 +4667,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4679,7 +4676,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4693,10 +4690,10 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D17" t="s">
         <v>113</v>
@@ -4707,7 +4704,7 @@
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J17" t="s">
         <v>113</v>
@@ -4716,7 +4713,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4725,7 +4722,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4746,7 +4743,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -4755,7 +4752,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4764,7 +4761,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4778,14 +4775,14 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -4794,7 +4791,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4803,7 +4800,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4820,7 +4817,7 @@
         <v>590</v>
       </c>
       <c r="C20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -4831,7 +4828,7 @@
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -4840,7 +4837,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4849,7 +4846,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4870,7 +4867,7 @@
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -4879,7 +4876,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4888,7 +4885,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4909,7 +4906,7 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -4918,7 +4915,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4927,7 +4924,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4941,10 +4938,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C23" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -4969,7 +4966,7 @@
         <v>590</v>
       </c>
       <c r="C24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -4980,7 +4977,7 @@
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J24" t="s">
         <v>156</v>
@@ -4989,7 +4986,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -4998,7 +4995,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5019,7 +5016,7 @@
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5047,7 +5044,7 @@
         <v>590</v>
       </c>
       <c r="C26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5060,7 +5057,7 @@
       <c r="J26"/>
       <c r="K26"/>
       <c r="L26" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5069,7 +5066,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5090,7 +5087,7 @@
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J27" t="s">
         <v>174</v>
@@ -5099,7 +5096,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5108,7 +5105,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5122,10 +5119,10 @@
         <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D28" t="s">
         <v>181</v>
@@ -5136,7 +5133,7 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J28" t="s">
         <v>183</v>
@@ -5145,7 +5142,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5154,7 +5151,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5168,10 +5165,10 @@
         <v>189</v>
       </c>
       <c r="B29" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D29" t="s">
         <v>190</v>
@@ -5182,7 +5179,7 @@
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J29" t="s">
         <v>183</v>
@@ -5191,7 +5188,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5200,7 +5197,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5214,10 +5211,10 @@
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
@@ -5228,7 +5225,7 @@
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J30" t="s">
         <v>183</v>
@@ -5237,7 +5234,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5246,7 +5243,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5260,10 +5257,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C31" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -5274,7 +5271,7 @@
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J31" t="s">
         <v>198</v>
@@ -5283,7 +5280,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5292,7 +5289,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5309,7 +5306,7 @@
         <v>590</v>
       </c>
       <c r="C32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -5340,7 +5337,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5349,7 +5346,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5370,7 +5367,7 @@
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -5379,7 +5376,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5388,7 +5385,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5407,7 +5404,7 @@
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G35" t="s">
         <v>220</v>
@@ -5416,7 +5413,7 @@
         <v>221</v>
       </c>
       <c r="I35" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J35" t="s">
         <v>222</v>
@@ -5425,7 +5422,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5434,7 +5431,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5448,10 +5445,10 @@
         <v>228</v>
       </c>
       <c r="B36" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D36" t="s">
         <v>229</v>
@@ -5460,7 +5457,7 @@
         <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
@@ -5469,7 +5466,7 @@
         <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J36" t="s">
         <v>222</v>
@@ -5478,7 +5475,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5487,7 +5484,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5504,7 +5501,7 @@
         <v>590</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D37" t="s">
         <v>234</v>
@@ -5544,10 +5541,10 @@
         <v>237</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D39" t="s">
         <v>238</v>
@@ -5558,7 +5555,7 @@
       <c r="G39"/>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J39" t="s">
         <v>240</v>
@@ -5567,7 +5564,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5576,7 +5573,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5593,7 +5590,7 @@
         <v>590</v>
       </c>
       <c r="C40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D40" t="s">
         <v>247</v>
@@ -5604,7 +5601,7 @@
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J40" t="s">
         <v>249</v>
@@ -5613,7 +5610,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5622,7 +5619,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5643,7 +5640,7 @@
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5652,7 +5649,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5661,7 +5658,7 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P41"/>
       <c r="Q41" t="s">
@@ -5673,14 +5670,14 @@
         <v>261</v>
       </c>
       <c r="B42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5689,7 +5686,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5698,7 +5695,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5721,7 +5718,7 @@
       <c r="J43"/>
       <c r="K43"/>
       <c r="L43" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5730,7 +5727,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5744,7 +5741,7 @@
         <v>273</v>
       </c>
       <c r="B44" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C44" t="s">
         <v>275</v>
@@ -5760,7 +5757,7 @@
       <c r="J44"/>
       <c r="K44"/>
       <c r="L44" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5769,7 +5766,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5783,10 +5780,10 @@
         <v>280</v>
       </c>
       <c r="B45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -5797,7 +5794,7 @@
       <c r="G45"/>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5806,7 +5803,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5815,7 +5812,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5832,7 +5829,7 @@
         <v>590</v>
       </c>
       <c r="C46" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D46" t="s">
         <v>288</v>
@@ -5843,7 +5840,7 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5852,7 +5849,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5861,7 +5858,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5875,10 +5872,10 @@
         <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D47" t="s">
         <v>297</v>
@@ -5889,7 +5886,7 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5898,7 +5895,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5907,7 +5904,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5928,7 +5925,7 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5937,7 +5934,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5946,7 +5943,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5963,7 +5960,7 @@
         <v>590</v>
       </c>
       <c r="C49" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D49" t="s">
         <v>311</v>
@@ -5988,7 +5985,7 @@
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -6005,7 +6002,7 @@
         <v>590</v>
       </c>
       <c r="C50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D50" t="s">
         <v>315</v>
@@ -6030,7 +6027,7 @@
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6047,7 +6044,7 @@
         <v>592</v>
       </c>
       <c r="C51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D51" t="s">
         <v>318</v>
@@ -6058,7 +6055,7 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6067,7 +6064,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6076,7 +6073,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6097,7 +6094,7 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6106,7 +6103,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6115,7 +6112,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6132,7 +6129,7 @@
         <v>590</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D53" t="s">
         <v>334</v>
@@ -6178,7 +6175,7 @@
         <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D54" t="s">
         <v>337</v>
@@ -6187,7 +6184,7 @@
         <v>338</v>
       </c>
       <c r="F54" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G54" t="s">
         <v>339</v>
@@ -6228,10 +6225,10 @@
         <v>341</v>
       </c>
       <c r="B55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D55" t="s">
         <v>342</v>
@@ -6273,7 +6270,7 @@
       <c r="D56"/>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G56" t="s">
         <v>345</v>
@@ -6314,10 +6311,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C57" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D57" t="s">
         <v>349</v>
@@ -6326,7 +6323,7 @@
         <v>350</v>
       </c>
       <c r="F57" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G57" t="s">
         <v>351</v>
@@ -6372,7 +6369,7 @@
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G58" t="s">
         <v>355</v>
@@ -6413,10 +6410,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C59" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -6427,7 +6424,7 @@
       <c r="G59"/>
       <c r="H59"/>
       <c r="I59" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6436,7 +6433,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6445,7 +6442,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6459,10 +6456,10 @@
         <v>367</v>
       </c>
       <c r="B60" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D60" t="s">
         <v>368</v>
@@ -6473,7 +6470,7 @@
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6482,7 +6479,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6491,7 +6488,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6505,10 +6502,10 @@
         <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C61" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D61" t="s">
         <v>377</v>
@@ -6519,7 +6516,7 @@
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6528,7 +6525,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6537,7 +6534,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6556,7 +6553,7 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G62" t="s">
         <v>386</v>
@@ -6581,7 +6578,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G63" t="s">
         <v>389</v>
@@ -6622,10 +6619,10 @@
         <v>391</v>
       </c>
       <c r="B64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C64" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D64" t="s">
         <v>392</v>
@@ -6636,7 +6633,7 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6645,7 +6642,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6654,7 +6651,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6671,7 +6668,7 @@
         <v>590</v>
       </c>
       <c r="C65" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D65" t="s">
         <v>401</v>
@@ -6693,10 +6690,10 @@
         <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D66" t="s">
         <v>404</v>
@@ -6721,7 +6718,7 @@
         <v>590</v>
       </c>
       <c r="C67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D67" t="s">
         <v>407</v>
@@ -6746,7 +6743,7 @@
         <v>590</v>
       </c>
       <c r="C68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D68" t="s">
         <v>410</v>
@@ -6771,7 +6768,7 @@
         <v>590</v>
       </c>
       <c r="C69" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D69"/>
       <c r="E69" t="s">
@@ -6780,7 +6777,7 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="s">
@@ -6799,7 +6796,7 @@
         <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D70"/>
       <c r="E70" t="s">
@@ -6808,7 +6805,7 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="s">
@@ -6827,7 +6824,7 @@
         <v>590</v>
       </c>
       <c r="C71" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D71"/>
       <c r="E71" t="s">
@@ -6836,21 +6833,21 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6864,10 +6861,10 @@
         <v>424</v>
       </c>
       <c r="B72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D72" t="s">
         <v>425</v>
@@ -6878,21 +6875,21 @@
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6915,7 +6912,7 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6934,7 +6931,7 @@
         <v>590</v>
       </c>
       <c r="C74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D74" t="s">
         <v>433</v>
@@ -6959,7 +6956,7 @@
         <v>590</v>
       </c>
       <c r="C75" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D75" t="s">
         <v>436</v>
@@ -6981,10 +6978,10 @@
         <v>438</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C76" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D76" t="s">
         <v>439</v>
@@ -6997,7 +6994,7 @@
       <c r="J76"/>
       <c r="K76"/>
       <c r="L76" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7013,10 +7010,10 @@
         <v>443</v>
       </c>
       <c r="B77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C77" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D77" t="s">
         <v>444</v>
@@ -7029,7 +7026,7 @@
       <c r="J77"/>
       <c r="K77"/>
       <c r="L77" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7048,7 +7045,7 @@
         <v>590</v>
       </c>
       <c r="C78" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D78"/>
       <c r="E78" t="s">
@@ -7071,7 +7068,7 @@
         <v>590</v>
       </c>
       <c r="C79" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D79" t="s">
         <v>451</v>
@@ -7082,14 +7079,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="s">
@@ -7106,7 +7103,7 @@
         <v>590</v>
       </c>
       <c r="C80" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D80" t="s">
         <v>455</v>
@@ -7117,7 +7114,7 @@
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7126,7 +7123,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7135,7 +7132,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7149,10 +7146,10 @@
         <v>463</v>
       </c>
       <c r="B81" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C81" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D81" t="s">
         <v>464</v>
@@ -7183,7 +7180,7 @@
       <c r="J82"/>
       <c r="K82"/>
       <c r="L82" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7192,7 +7189,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7211,7 +7208,7 @@
       <c r="D83"/>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G83" t="s">
         <v>471</v>
@@ -7255,7 +7252,7 @@
         <v>590</v>
       </c>
       <c r="C84" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D84" t="s">
         <v>474</v>
@@ -7264,7 +7261,7 @@
         <v>475</v>
       </c>
       <c r="F84" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G84" t="s">
         <v>476</v>
@@ -7287,7 +7284,7 @@
         <v>590</v>
       </c>
       <c r="C85" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D85" t="s">
         <v>479</v>
@@ -7296,7 +7293,7 @@
         <v>475</v>
       </c>
       <c r="F85" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G85" t="s">
         <v>480</v>
@@ -7319,7 +7316,7 @@
         <v>590</v>
       </c>
       <c r="C86" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D86" t="s">
         <v>483</v>
@@ -7328,7 +7325,7 @@
         <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G86" t="s">
         <v>485</v>
@@ -7351,7 +7348,7 @@
         <v>590</v>
       </c>
       <c r="C87" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D87" t="s">
         <v>488</v>
@@ -7376,7 +7373,7 @@
         <v>590</v>
       </c>
       <c r="C88" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D88" t="s">
         <v>491</v>
@@ -7401,7 +7398,7 @@
         <v>590</v>
       </c>
       <c r="C89" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D89" t="s">
         <v>494</v>
@@ -7410,7 +7407,7 @@
         <v>495</v>
       </c>
       <c r="F89" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G89" t="s">
         <v>496</v>
@@ -7433,7 +7430,7 @@
         <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
@@ -7444,7 +7441,7 @@
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7453,7 +7450,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7462,7 +7459,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7479,7 +7476,7 @@
         <v>590</v>
       </c>
       <c r="C91" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D91" t="s">
         <v>508</v>
@@ -7501,10 +7498,10 @@
         <v>510</v>
       </c>
       <c r="B92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D92" t="s">
         <v>511</v>
@@ -7526,7 +7523,7 @@
         <v>513</v>
       </c>
       <c r="B93" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D93"/>
       <c r="E93"/>
@@ -7544,7 +7541,7 @@
         <v>514</v>
       </c>
       <c r="B94" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D94"/>
       <c r="E94"/>
@@ -7553,7 +7550,7 @@
       <c r="J94"/>
       <c r="K94"/>
       <c r="L94" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7569,10 +7566,10 @@
         <v>517</v>
       </c>
       <c r="B95" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C95" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D95" t="s">
         <v>518</v>
@@ -7583,7 +7580,7 @@
       <c r="G95"/>
       <c r="H95"/>
       <c r="I95" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7592,7 +7589,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7601,7 +7598,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7615,10 +7612,10 @@
         <v>526</v>
       </c>
       <c r="B96" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C96" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D96" t="s">
         <v>527</v>
@@ -7629,7 +7626,7 @@
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7638,7 +7635,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7647,7 +7644,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7664,7 +7661,7 @@
         <v>592</v>
       </c>
       <c r="C97" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D97" t="s">
         <v>536</v>
@@ -7675,7 +7672,7 @@
       <c r="G97"/>
       <c r="H97"/>
       <c r="I97" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7684,7 +7681,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7693,7 +7690,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7707,10 +7704,10 @@
         <v>542</v>
       </c>
       <c r="B98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C98" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D98" t="s">
         <v>543</v>
@@ -7721,7 +7718,7 @@
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7730,7 +7727,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7739,7 +7736,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7756,7 +7753,7 @@
         <v>592</v>
       </c>
       <c r="C99" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D99" t="s">
         <v>552</v>
@@ -7769,7 +7766,7 @@
       <c r="J99"/>
       <c r="K99"/>
       <c r="L99" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7778,7 +7775,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7795,7 +7792,7 @@
         <v>592</v>
       </c>
       <c r="C100" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D100" t="s">
         <v>559</v>
@@ -7808,7 +7805,7 @@
       <c r="J100"/>
       <c r="K100"/>
       <c r="L100" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7824,10 +7821,10 @@
         <v>563</v>
       </c>
       <c r="B101" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D101" t="s">
         <v>564</v>
@@ -7838,7 +7835,7 @@
       <c r="G101"/>
       <c r="H101"/>
       <c r="I101" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7847,7 +7844,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7856,7 +7853,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7873,7 +7870,7 @@
         <v>592</v>
       </c>
       <c r="C102" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D102" t="s">
         <v>573</v>
@@ -7884,7 +7881,7 @@
       <c r="G102"/>
       <c r="H102"/>
       <c r="I102" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7893,7 +7890,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7902,7 +7899,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7916,10 +7913,10 @@
         <v>581</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C103" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D103" t="s">
         <v>582</v>
@@ -7930,7 +7927,7 @@
       <c r="G103"/>
       <c r="H103"/>
       <c r="I103" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7939,7 +7936,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7948,7 +7945,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>

--- a/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
+++ b/_Lang_Korean/Lang/KR/Game/CharaText.xlsx
@@ -1,122 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr autoCompressPictures="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\Elin_KR\_Lang_Korean\Lang\KR\Game\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0C74A8-055B-42F1-A5FB-3528D7475C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharaText" sheetId="1" r:id="rId3"/>
+    <sheet name="CharaText" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1"><![CDATA[CharaText!$A$2:$Q$2]]></definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$2</definedName>
   </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="852">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calm_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calm_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fov_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fov_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggro_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aggro_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dead_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dead_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kill_EN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kill_JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You senseless bastard!"
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="852">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>calm</t>
+  </si>
+  <si>
+    <t>calm_EN</t>
+  </si>
+  <si>
+    <t>calm_JP</t>
+  </si>
+  <si>
+    <t>fov</t>
+  </si>
+  <si>
+    <t>fov_EN</t>
+  </si>
+  <si>
+    <t>fov_JP</t>
+  </si>
+  <si>
+    <t>aggro</t>
+  </si>
+  <si>
+    <t>aggro_EN</t>
+  </si>
+  <si>
+    <t>aggro_JP</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>dead_EN</t>
+  </si>
+  <si>
+    <t>dead_JP</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>kill_EN</t>
+  </si>
+  <si>
+    <t>kill_JP</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>EA 23.25</t>
+  </si>
+  <si>
+    <t>"You senseless bastard!"
 "You are vile!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「感性の下劣なやつめ！」
+    <t>「感性の下劣なやつめ！」
 「低俗なやつだ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"This is art!"
+    <t>"This is art!"
 "I was living peacefully."
 "It's art!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「これぞ芸術！」
+    <t>「これぞ芸術！」
 「争いとは無縁の世界に生きていたのに」
 「アートだー！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I give up on people!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「人をあやめてしまった！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ring*</t>
+    <t>"I give up on people!"</t>
+  </si>
+  <si>
+    <t>「人をあやめてしまった！」</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>*ring*</t>
   </si>
   <si>
     <t xml:space="preserve"> *リン*</t>
   </si>
   <si>
-    <t xml:space="preserve">*ring...*</t>
+    <t>*ring...*</t>
   </si>
   <si>
     <t xml:space="preserve"> *リン…*</t>
   </si>
   <si>
-    <t xml:space="preserve">fairy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*flutter*
+    <t>fairy</t>
+  </si>
+  <si>
+    <t>*flutter*
 *flit flit*
 *flick*
 *laughter*</t>
@@ -127,10 +135,10 @@
  *ハタハタ*</t>
   </si>
   <si>
-    <t xml:space="preserve">black_angel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*flutter*
+    <t>black_angel</t>
+  </si>
+  <si>
+    <t>*flutter*
 *flick*
 *flap flap*</t>
   </si>
@@ -140,40 +148,40 @@
  *ハタハタ*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Aaah!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「きゃあ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hell awaits you."
+    <t>"Aaah!"</t>
+  </si>
+  <si>
+    <t>「きゃあ！」</t>
+  </si>
+  <si>
+    <t>"Hell awaits you."
 "Look at you."</t>
   </si>
   <si>
-    <t xml:space="preserve">「地獄に落ちなさい」
+    <t>「地獄に落ちなさい」
 「いいざまね」</t>
   </si>
   <si>
-    <t xml:space="preserve">bard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Polish your sword and drink a beer♫♫"
+    <t>bard</t>
+  </si>
+  <si>
+    <t>"Polish your sword and drink a beer♫♫"
 "Ninety-nine Yeeks in a dank hole. &amp;Ninety-nine Yeeks in a Hole!"
 "Crawling in my Robes! &amp;These wounds will need a Healer!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「タラララララー♪」
+    <t>「タラララララー♪」
 「チキチキ♪」
 「ドナドナドナ～♪」
 *ジャン*
 *シャリン*</t>
   </si>
   <si>
-    <t xml:space="preserve">"S-Stop it..!"
+    <t>"S-Stop it..!"
 "Was my music that bad?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「や、やめてくれたまえ」
+    <t>「や、やめてくれたまえ」
 「そんなに耳障りな演奏だったかい？」</t>
   </si>
   <si>
@@ -182,62 +190,62 @@
 "Did I suck that bad?" </t>
   </si>
   <si>
-    <t xml:space="preserve">「そんな馬鹿な…」
+    <t>「そんな馬鹿な…」
 「厳しい客だぜ」
 「下手で悪かったよ」</t>
   </si>
   <si>
-    <t xml:space="preserve">bartender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear the sound of cocktail shakers.
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>You hear the sound of cocktail shakers.
 "How 'bout a drink sir?"
 "We got vintage crim ales."
 The bar is crowded with people.</t>
   </si>
   <si>
-    <t xml:space="preserve">カクテルをシェイクする音が聞こえる。
+    <t>カクテルをシェイクする音が聞こえる。
 「一杯どう{だ}？」
 「年季物のクリムエールがある{よ}」
 酒場は多くの人でにぎわっている。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Hey, stop it drunkard."
+    <t>"Hey, stop it drunkard."
 "Are you sick from drinking too much?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「この酔っ払いめ！」
+    <t>「この酔っ払いめ！」
 「悪酔いはいけませんよ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I got killed by a drunk."
+    <t>"I got killed by a drunk."
 "This is ridiculous."</t>
   </si>
   <si>
-    <t xml:space="preserve">「酔っ払いごときに…」
+    <t>「酔っ払いごときに…」
 「ふざけた運命{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Bet you're sober now huh?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「酔いは覚めましたか？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">begger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Please sir…"
+    <t>"Bet you're sober now huh?"</t>
+  </si>
+  <si>
+    <t>「酔いは覚めましたか？」</t>
+  </si>
+  <si>
+    <t>begger</t>
+  </si>
+  <si>
+    <t>"Please sir…"
 "A bit of mercy…"
 "Sir!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「旦那ぁ！」
+    <t>「旦那ぁ！」
 「お恵みを…」
 「恵んで{くれ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">"P-please, no sir..."
+    <t>"P-please, no sir..."
 "Waaaa!"
 "You get nothing from killing me..."
 "Don't make a fool of me!"
@@ -246,7 +254,7 @@
 "W-w-what...!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「やめて{くれ}、旦那」
+    <t>「やめて{くれ}、旦那」
 「ひぃ！」
 「私を殺しても何の得にもならない{よ}」
 「馬鹿にするな！」
@@ -255,7 +263,7 @@
 「ちょ、ちょっと…！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"You are cruel."
+    <t>"You are cruel."
 "Ahhhh!"
 "I don't deserve this..."
 "It's unfair."
@@ -263,7 +271,7 @@
 "My life is pathetic."</t>
   </si>
   <si>
-    <t xml:space="preserve">「殺生な！」
+    <t>「殺生な！」
 「ぐわぁ」
 「なんでこんな目に…」
 「ひどい」
@@ -271,52 +279,52 @@
 「私の人生っていったい」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Weak! Weak!"
+    <t>"Weak! Weak!"
 "Huh?"
 "Ha ha ha!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「よわ！」
+    <t>「よわ！」
 「何がしたかったんだ？」
 「ははは！」</t>
   </si>
   <si>
-    <t xml:space="preserve">bitch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh my."
+    <t>bitch</t>
+  </si>
+  <si>
+    <t>"Oh my."
 "Hey bad #gender."
 *grin*
 "Wanna have fun?"
 "I'll show you nasty dreams."</t>
   </si>
   <si>
-    <t xml:space="preserve">「あらあら」
+    <t>「あらあら」
 「あら、いい#gender」
 「ウフフ」
 「楽しんでく？」
 「夢を見せてあげ{る}」</t>
   </si>
   <si>
-    <t xml:space="preserve">「喧嘩か」
+    <t>「喧嘩か」
 「みぐるみはいでやる{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">「きさまー」
+    <t>「きさまー」
 「このままでは終わらないぞ」</t>
   </si>
   <si>
-    <t xml:space="preserve">「おねんねしてな」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Meow."
+    <t>「おねんねしてな」</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>"Meow."
 *purr purr*</t>
   </si>
   <si>
-    <t xml:space="preserve">「ミャア」
+    <t>「ミャア」
 「ニャ」
 「ミャ」
 「ニャア」
@@ -324,80 +332,80 @@
 *ごろごろ*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Meow!"
+    <t>"Meow!"
 "Mew mew!"
 "Mew!"
 "Meow"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ニャー！」
+    <t>「ニャー！」
 「ニャウ！」
 「ニャン！」
 「ゥニャ！」
 「フシュー！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Me...meow...."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ニャァー…ァ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*hiss*
+    <t>"Me...meow...."</t>
+  </si>
+  <si>
+    <t>「ニャァー…ァ」</t>
+  </si>
+  <si>
+    <t>*hiss*
 "Meoow!"
 "Meew!"
 "Mew!"
 "Meow meow."</t>
   </si>
   <si>
-    <t xml:space="preserve">*ふしゅぅ*
+    <t>*ふしゅぅ*
 「ニャァー！」
 「にゃー」
 「ゥニャ！」
 爪を研ぐ音が聞こえる。</t>
   </si>
   <si>
-    <t xml:space="preserve">cat_stray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Do you know the way home?"
+    <t>cat_stray</t>
+  </si>
+  <si>
+    <t>"Do you know the way home?"
 "I'm going home."
 "I'm going home!"
 "Where mom? Which way home?"
 "Home meow!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「おうちしってう？」
+    <t>「おうちしってう？」
 「おうちかえう」
 「おうちかえう！」
 「ママどっち？おうちどっち？」
 「ニャア」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'm going to die."
+    <t>"I'm going to die."
 "I'm going to die!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ころさえう」
+    <t>「ころさえう」
 「しぬぅ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'm...going...hom....e..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「おうち…かえ…ぅ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"That scared me!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あぁ～ビックリしたぁ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mogu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cu..."
+    <t>"I'm...going...hom....e..."</t>
+  </si>
+  <si>
+    <t>「おうち…かえ…ぅ…」</t>
+  </si>
+  <si>
+    <t>"That scared me!"</t>
+  </si>
+  <si>
+    <t>「あぁ～ビックリしたぁ」</t>
+  </si>
+  <si>
+    <t>mogu</t>
+  </si>
+  <si>
+    <t>"Cu..."
 "...po."</t>
   </si>
   <si>
@@ -408,64 +416,64 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Cupo!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「くぱぉ！」
+    <t>「…」</t>
+  </si>
+  <si>
+    <t>"Cupo!"</t>
+  </si>
+  <si>
+    <t>「くぱぉ！」
 「クパァ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">cat_black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Meow."
+    <t>cat_black</t>
+  </si>
+  <si>
+    <t>"Meow."
 "Mew mew."
 "Mew."
 *purr purr*</t>
   </si>
   <si>
-    <t xml:space="preserve">「うみみゃ」
+    <t>「うみみゃ」
 「みゅー」
 「みゃ」
  *ごろごろ*</t>
   </si>
   <si>
-    <t xml:space="preserve">「フシューッ」
+    <t>「フシューッ」
 「うみみゃ！」
 「みゃ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「うみ…みゃ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黒猫は尻尾をふった。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">twintail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All around you is the sensation of being in a sacred place.
+    <t>「うみ…みゃ…」</t>
+  </si>
+  <si>
+    <t>黒猫は尻尾をふった。</t>
+  </si>
+  <si>
+    <t>twintail</t>
+  </si>
+  <si>
+    <t>All around you is the sensation of being in a sacred place.
 You have seldom felt such an air of peace.
 All around is very quiet  yet you aren't the least bit lonely.
 In your mind you hear the strange echoes of a voice in prayer.</t>
   </si>
   <si>
-    <t xml:space="preserve">辺りは神聖な雰囲気に包まれている。
+    <t>辺りは神聖な雰囲気に包まれている。
 あなたは何者かの穏やかな視線を感じた。
 とても静かで、平和な場所だ。
 心の中で、奇妙な祈りの声がこだました。</t>
   </si>
   <si>
-    <t xml:space="preserve">@cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"H-help-!"
+    <t>@cat</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>"H-help-!"
 "No no!"
 "You are evil."
 "Pervert!"
@@ -474,7 +482,7 @@
 "Adults."</t>
   </si>
   <si>
-    <t xml:space="preserve">「たすけてー」
+    <t>「たすけてー」
 「や、やめて」
 「悪の手先{だ}！」
 「変質者！」
@@ -483,7 +491,7 @@
 「大人はこれだから」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Mom...."
+    <t>"Mom...."
 "A---ahh-"
 "Go to hell!"
 "Waaaan!"
@@ -492,7 +500,7 @@
 "Sorry, mom, dad...."</t>
   </si>
   <si>
-    <t xml:space="preserve">「おかーさん…」
+    <t>「おかーさん…」
 「えーん」
 「地獄に落ちろ！」
 「わぁぁん」
@@ -501,39 +509,39 @@
 「先立つ不孝をお許し下さい…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Weak! You are weak!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この人よわーい」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hardgay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Foooooo!"
+    <t>"Weak! You are weak!"</t>
+  </si>
+  <si>
+    <t>「この人よわーい」</t>
+  </si>
+  <si>
+    <t>hardgay</t>
+  </si>
+  <si>
+    <t>"Foooooo!"
 "Fooooo"
 "Foooooo!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「フーーーーｰｰ！」
+    <t>「フーーーーｰｰ！」
 「フーーー」
 「フゥーーーー！」</t>
   </si>
   <si>
-    <t xml:space="preserve">citizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What are you doing?"
+    <t>citizen</t>
+  </si>
+  <si>
+    <t>"What are you doing?"
 "You barbarian!"
 "Even me?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「何をするんですか！」
+    <t>「何をするんですか！」
 「野蛮人！」
 「私だって」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I was a good citizen."
+    <t>"I was a good citizen."
 "Go to hell!"
 "I give up."
 "Nooooo....."
@@ -542,7 +550,7 @@
 "W-What have you done!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「私は善良な市民だったのに」
+    <t>「私は善良な市民だったのに」
 「くそめ」
 「まいった」
 「ぐえ」
@@ -551,16 +559,16 @@
 「何の冗談ですか」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Citizen power."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「市民パワー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bunny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I was a good bunny."
+    <t>"Citizen power."</t>
+  </si>
+  <si>
+    <t>「市民パワー」</t>
+  </si>
+  <si>
+    <t>bunny</t>
+  </si>
+  <si>
+    <t>"I was a good bunny."
 "Go to hell!"
 "I give up."
 "Nooooo....."
@@ -569,7 +577,7 @@
 "W-What have you done!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「私は善良なバニーだったのに」
+    <t>「私は善良なバニーだったのに」
 「くそめ」
 「まいった」
 「ぐえ」
@@ -578,49 +586,49 @@
 「何の冗談ですか」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Bunny power."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「バニーパワー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I wish my young master would be more self-aware."
+    <t>"Bunny power."</t>
+  </si>
+  <si>
+    <t>「バニーパワー」</t>
+  </si>
+  <si>
+    <t>conery</t>
+  </si>
+  <si>
+    <t>"I wish my young master would be more self-aware."
 "You know what separates a soldier from a thug? &amp;The polish on his buttons, that's what."
 "O, Princess Stasha…"
 "How graceful!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「若様にはもっと自覚を持って頂きたいものだ」
+    <t>「若様にはもっと自覚を持って頂きたいものだ」
 「軍人たるもの、常に身だしなみに気をつけねば」
 「おお、スターシャさま…」
 「なんと麗しい！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'll put you on military trial, scum."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「貴様、軍事裁判にかけてやるわ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You impertinent young snit!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ちょこざいなー！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Brat."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「こわっぱが」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stop it, please."
+    <t>"I'll put you on military trial, scum."</t>
+  </si>
+  <si>
+    <t>「貴様、軍事裁判にかけてやるわ」</t>
+  </si>
+  <si>
+    <t>"You impertinent young snit!"</t>
+  </si>
+  <si>
+    <t>「ちょこざいなー！」</t>
+  </si>
+  <si>
+    <t>"Brat."</t>
+  </si>
+  <si>
+    <t>「こわっぱが」</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>"Stop it, please."
 "Unreasonable!"
 "You foul scum."
 "Fool!"
@@ -629,7 +637,7 @@
 "Leave me alone."</t>
   </si>
   <si>
-    <t xml:space="preserve">「止めてくだされ」
+    <t>「止めてくだされ」
 「ご無体な」
 「なんと卑劣な」
 「たわけ！」
@@ -638,7 +646,7 @@
 「金などもっていないんじゃ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"God will punish you."
+    <t>"God will punish you."
 "My remaining years..."
 "Demon!"
 "Grrhhh"
@@ -646,7 +654,7 @@
 "Am I dead?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「神様はみておるぞ！」
+    <t>「神様はみておるぞ！」
 「わしの老後が…」
 「鬼！」
 「ぐほぉ」
@@ -654,46 +662,46 @@
 「わしゃ死んだのか」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Holy...why are you so weak?"
+    <t>"Holy...why are you so weak?"
 "Muwahahaha!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「なんとよわっちぃ奴じゃ」
+    <t>「なんとよわっちぃ奴じゃ」
 「いまどきの若者はなっとらんのぉ」</t>
   </si>
   <si>
-    <t xml:space="preserve">farmer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What are you doing?"
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>"What are you doing?"
 "Stop!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「なにするだー」
+    <t>「なにするだー」
 「やめるだー」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'm...I'm..!"
+    <t>"I'm...I'm..!"
 "Don't call me a clown...!"
 "Arrrg."</t>
   </si>
   <si>
-    <t xml:space="preserve">「おらは…おらはー！」
+    <t>「おらは…おらはー！」
 「田舎モンだからって…！」
 「食べ物を粗末にするな！」
 「はぐわ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Cabbage."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「よわいべ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">garokk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear the rhythmic clang of a hammer on steel
+    <t>"Cabbage."</t>
+  </si>
+  <si>
+    <t>「よわいべ」</t>
+  </si>
+  <si>
+    <t>garokk</t>
+  </si>
+  <si>
+    <t>You hear the rhythmic clang of a hammer on steel
 You hear the whoosh of a bellows being pumped
 You hear the perfect ring of steel-on-steel. It makes your blood race
 "And just what shall you be, oh noble ingot? &amp;A dagger perhaps, an axe blade by chance? &amp;Let us find out..."
@@ -702,7 +710,7 @@
 "Let's just sit you on the shelf oh noble blade, &amp;for soon your brothers shall join you."</t>
   </si>
   <si>
-    <t xml:space="preserve">*トンカン*
+    <t>*トンカン*
 *カーン*
 *キン*
 鉄を打つ音が響いている。
@@ -711,10 +719,10 @@
 「宝の持ち腐れじゃ」</t>
   </si>
   <si>
-    <t xml:space="preserve">gilbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Help the helpless! Crush the vileness!"
+    <t>gilbert</t>
+  </si>
+  <si>
+    <t>"Help the helpless! Crush the vileness!"
 "Atten-TION! Salute!"
 "Conery, always talking trash…"
 "He's gonna be bald someday."
@@ -722,7 +730,7 @@
 "Mwaha!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「今日もブイブイいわすぜ！」
+    <t>「今日もブイブイいわすぜ！」
 「敬礼！」
 「コネリーめ、小言ばかり…」
 「あいつはいつかハゲるぞ」
@@ -730,129 +738,129 @@
 「フハハ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Hwaaaa!"
+    <t>"Hwaaaa!"
 "Hiyah"</t>
   </si>
   <si>
-    <t xml:space="preserve">「おらおら！」
+    <t>「おらおら！」
 「フハー！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"What?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フハー…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Mwahahahahaha!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フハハハハ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stop there criminal!"
+    <t>"What?"</t>
+  </si>
+  <si>
+    <t>「フハー…」</t>
+  </si>
+  <si>
+    <t>"Mwahahahahaha!"</t>
+  </si>
+  <si>
+    <t>「フハハハハ！」</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>"Stop there criminal!"
 "You scum! Stay there."
 "You are under arrest."
 "You will pay for your crimes."</t>
   </si>
   <si>
-    <t xml:space="preserve">「お尋ね者{だ}！」
+    <t>「お尋ね者{だ}！」
 「犯罪者め、おとなしくしろ」
 「のこのこ現れるとはな！」
 「罪をつぐなってもらおう」</t>
   </si>
   <si>
-    <t xml:space="preserve">@citizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear hoofbeats.
+    <t>@citizen</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>You hear hoofbeats.
 *clop-clop*
 *clop*</t>
   </si>
   <si>
-    <t xml:space="preserve">*パカパカ*
+    <t>*パカパカ*
 *パカラッ*
 *パコパコ*</t>
   </si>
   <si>
-    <t xml:space="preserve">*whinny*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ひ…ひん…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Neigh!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ヒヒーン！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">janitor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You snail!"
+    <t>*whinny*</t>
+  </si>
+  <si>
+    <t>「ひ…ひん…」</t>
+  </si>
+  <si>
+    <t>"Neigh!"</t>
+  </si>
+  <si>
+    <t>「ヒヒーン！」</t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>"You snail!"
 "You've got balls to stand up against me."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なめくじぃ」
+    <t>「なめくじぃ」
 「私に歯向かうとはいい度胸{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Oh, my corpse will pollute the city!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ああ、私の肉片が街を汚してしまう！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ahahahahaha!"
+    <t>"Oh, my corpse will pollute the city!"</t>
+  </si>
+  <si>
+    <t>「ああ、私の肉片が街を汚してしまう！」</t>
+  </si>
+  <si>
+    <t>"Ahahahahaha!"
 "You lowlife!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「フハハハハ！」
+    <t>「フハハハハ！」
 「この下等生物め」</t>
   </si>
   <si>
-    <t xml:space="preserve">littleOne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"#bigdaddy, please stand up… Please!"
+    <t>littleOne</t>
+  </si>
+  <si>
+    <t>"#bigdaddy, please stand up… Please!"
 You hear the sound of a frightened little girl somewhere.
 "Angel, angel, until we find the right one we don't dare die…"</t>
   </si>
   <si>
-    <t xml:space="preserve">「#bigdaddy、動いて…おねがい！」
+    <t>「#bigdaddy、動いて…おねがい！」
 「来ないで！触わらないで！」
 「天使…天使に出会うまで、まだ死にたくないの…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"N...no...don't com closer...help....please"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「い、いや…！こないで！やだ…助けて…お願い…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"N...no...I don't want to die....noooo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「死…死にたくない…いやあぁ…ぁ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My berry will be filled with blood of an angel..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「天使の血でお腹を満たすの」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">littleOne2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Look... there's an angel."
+    <t>"N...no...don't com closer...help....please"</t>
+  </si>
+  <si>
+    <t>「い、いや…！こないで！やだ…助けて…お願い…」</t>
+  </si>
+  <si>
+    <t>"N...no...I don't want to die....noooo"</t>
+  </si>
+  <si>
+    <t>「死…死にたくない…いやあぁ…ぁ」</t>
+  </si>
+  <si>
+    <t>"My berry will be filled with blood of an angel..."</t>
+  </si>
+  <si>
+    <t>「天使の血でお腹を満たすの」</t>
+  </si>
+  <si>
+    <t>littleOne2</t>
+  </si>
+  <si>
+    <t>"Look... there's an angel."
 "#bigdaddy is really good at hide and seek."
 "Hehe... it's time for the injection."
 "What shall we play today?"
@@ -864,7 +872,7 @@
 The Little Sister hides behind something.</t>
   </si>
   <si>
-    <t xml:space="preserve">「見て…天使がいるわ」
+    <t>「見て…天使がいるわ」
 「#bigdaddyはかくれんぼが上手ね」
 「うふふ…注射の時間だわ」
 「今日は何して遊ぶ？」
@@ -876,10 +884,10 @@
 リトルシスターは目が合うと物陰に隠れた。</t>
   </si>
   <si>
-    <t xml:space="preserve">big_sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Look... there's an angel."
+    <t>big_sister</t>
+  </si>
+  <si>
+    <t>"Look... there's an angel."
 "#bigdaddy is really good at hide and seek."
 "Hehe... it's time for the injection."
 "What shall we play today?"
@@ -890,7 +898,7 @@
 The Big Sister hides behind something.</t>
   </si>
   <si>
-    <t xml:space="preserve">「見て…天使がいるわ」
+    <t>「見て…天使がいるわ」
 「#bigdaddyはかくれんぼが上手ね」
 「うふふ…注射の時間だわ」
 「今日は何して遊ぶ？」
@@ -901,79 +909,79 @@
 ビッグシスターは目が合うと物陰に隠れた。</t>
   </si>
   <si>
-    <t xml:space="preserve">strange_girl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Those girls are creepy."
+    <t>strange_girl</t>
+  </si>
+  <si>
+    <t>"Those girls are creepy."
 "I want to go home."
 "Daddy's late."
 "I hate this place!"
 You hear a little girl talking to herself.</t>
   </si>
   <si>
-    <t xml:space="preserve">「あの子たち気味が悪い」
+    <t>「あの子たち気味が悪い」
 「早くお家に帰りたいわ」
 「パパまだ～？」
 「こんな所大嫌い」
 幼女の独り言が聞こえる。</t>
   </si>
   <si>
-    <t xml:space="preserve">"You pervert!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この変態！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Da...Daddy..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「パ…パ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What a pathetic adult!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「情けない大人ね！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mapMerchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hmm.. Let's see."
+    <t>"You pervert!"</t>
+  </si>
+  <si>
+    <t>「この変態！」</t>
+  </si>
+  <si>
+    <t>"Da...Daddy..."</t>
+  </si>
+  <si>
+    <t>「パ…パ…」</t>
+  </si>
+  <si>
+    <t>"What a pathetic adult!"</t>
+  </si>
+  <si>
+    <t>「情けない大人ね！」</t>
+  </si>
+  <si>
+    <t>mapMerchant</t>
+  </si>
+  <si>
+    <t>"Hmm.. Let's see."
 "Where did I put that map...?"
 "Here's another cobweb."
 "Watch your step."</t>
   </si>
   <si>
-    <t xml:space="preserve">「どれどれ」
+    <t>「どれどれ」
 「あの地図はどこに置いたか…」
 「またクモが巣を張っている」
 「足元には気をつけて歩いてくれ」</t>
   </si>
   <si>
-    <t xml:space="preserve">adventurer_fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Not here...!"
+    <t>adventurer_fox</t>
+  </si>
+  <si>
+    <t>"Not here...!"
 "Hngh..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「こんなところで…！」
+    <t>「こんなところで…！」
 「コン…」</t>
   </si>
   <si>
-    <t xml:space="preserve">#self puffs up #his tail.
+    <t>#self puffs up #his tail.
 #self wags #his tail vigorously.</t>
   </si>
   <si>
-    <t xml:space="preserve">#selfは尻尾を膨らませた。
+    <t>#selfは尻尾を膨らませた。
 #selfは尻尾を激しくふった。</t>
   </si>
   <si>
-    <t xml:space="preserve">merc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What the hell!"
+    <t>merc</t>
+  </si>
+  <si>
+    <t>"What the hell!"
 "You will regret this."
 "Ok, no turning back now."
 "Now you die!"
@@ -982,12 +990,12 @@
 "You touch me, you die."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なにしやがる！」
+    <t>「なにしやがる！」
 「この野郎」
 「今更謝っても遅い{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">"You.... You will pay for this someday..."
+    <t>"You.... You will pay for this someday..."
 "Nooo!"
 "A murderer!"
 "Stop it!"
@@ -996,7 +1004,7 @@
 "D-don't!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「貴様…覚えていろ」
+    <t>「貴様…覚えていろ」
 「うわぁぁ」
 「人殺し{だ}！」
 「やめろー」
@@ -1005,189 +1013,189 @@
 「命だけは助けて{くれ}ー」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Look at you."
+    <t>"Look at you."
 "Bye bye."</t>
   </si>
   <si>
-    <t xml:space="preserve">「いいざま{だ}」
+    <t>「いいざま{だ}」
 「出直して来い」</t>
   </si>
   <si>
-    <t xml:space="preserve">merchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Welcome to my shop!"
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>"Welcome to my shop!"
 "Take a look at my wares!"
 "Good to have you here."
 #self looks at you and nods.
 #self waves at you.</t>
   </si>
   <si>
-    <t xml:space="preserve">「いらっしゃい」
+    <t>「いらっしゃい」
 「ゆっくり見ていって{くれ}」
 #selfはあなたに軽く頷いた。
 #selfはあなたに手を振った。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Guards! Guards!"
+    <t>"Guards! Guards!"
 "Ambush!"
 "You thief!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ガード！ガード！」
+    <t>「ガード！ガード！」
 「襲撃{だ}！」
 「強盗め！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Please spare my life."
+    <t>"Please spare my life."
 "Ahhhh.…"</t>
   </si>
   <si>
-    <t xml:space="preserve">「命だけわぁ」
+    <t>「命だけわぁ」
 「あぁぁ…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Die thief."
+    <t>"Die thief."
 "You deserve this."</t>
   </si>
   <si>
-    <t xml:space="preserve">「あの世で後悔するがいい{よ}」
+    <t>「あの世で後悔するがいい{よ}」
 「虫けらめ」</t>
   </si>
   <si>
-    <t xml:space="preserve">merchant_festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The area is alive with festival-goers.
+    <t>merchant_festival</t>
+  </si>
+  <si>
+    <t>The area is alive with festival-goers.
 Joyful laughters echo around.
 Someone begins to hum a #festival tune.
 ~giggles and laughter~
 ~buzzing~</t>
   </si>
   <si>
-    <t xml:space="preserve">辺りは祭りに来た人々で賑わっている。
+    <t>辺りは祭りに来た人々で賑わっている。
 楽しそうな笑い声が聞こえる。
 誰かが#festivalの歌を口ずさんだ。
 ~わいわい~
 ~ガヤガヤ~</t>
   </si>
   <si>
-    <t xml:space="preserve">"Come see what I have, #brother!"
+    <t>"Come see what I have, #brother!"
 "It's only available at the #festival!"
 "Having a good time, #brother?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「寄っていきな、そこの#brother」
+    <t>「寄っていきな、そこの#brother」
 「#festival限定{だよ}！」
 「#brother、楽しんでる{か}？」</t>
   </si>
   <si>
-    <t xml:space="preserve">miral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh, what to make for dinner."
+    <t>miral</t>
+  </si>
+  <si>
+    <t>"Oh, what to make for dinner."
 "All work and no play makes Miral a dull boy."
 "There's never enough time in the world &amp;to get everything done."
 "Guests? Goodness it has been a while indeed."
 "I've got a cat I wanna frame! &amp;And now nothing shall ever be the same."</t>
   </si>
   <si>
-    <t xml:space="preserve">「今日のご飯はなんにしよう」
+    <t>「今日のご飯はなんにしよう」
 「ガロクの作品には遊びがないね」
 「暇だぬ」
 「おお、客人かな？」
 「猫 イズ フリ～ダ～ム♪ 猫 イズ フリ～ダ～ム♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">nino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">noble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hmph."
+    <t>nino</t>
+  </si>
+  <si>
+    <t>noble</t>
+  </si>
+  <si>
+    <t>"Hmph."
 "Lowly men."
 "You'll get my cloth dirty."
 "What's the play tonight?"
 "Always with elegance."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ふん」
+    <t>「ふん」
 「下賤の者が」
 「服が汚れ{る}」
 「今夜の劇は何かな」
 「優雅に過ごしたいもの{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Rude!"
+    <t>"Rude!"
 "Guards! Hurry up and get this idiot!"
 "Guards! Come here!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「無礼者！」
+    <t>「無礼者！」
 「ガード、とっととこのアホを捕まえろ」
 「ガード！きてくれー！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'm going to tell my father."
+    <t>"I'm going to tell my father."
 "What! How dare you!"
 "No… Stop…"</t>
   </si>
   <si>
-    <t xml:space="preserve">「パパにいいつけてやるんだ」
+    <t>「パパにいいつけてやるんだ」
 「なんという！なんという…！」
 「や、やめて…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Trash.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ゴミくずめ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear the chants of prayer in the distance.
+    <t>"Trash.</t>
+  </si>
+  <si>
+    <t>「ゴミくずめ」</t>
+  </si>
+  <si>
+    <t>nun</t>
+  </si>
+  <si>
+    <t>You hear the chants of prayer in the distance.
 "Come hither stray kittens, &amp;I shall guide you to the light."
 "Pray hard. There's always chance for salvation."
 "Do unto others as you wish others to do unto you."</t>
   </si>
   <si>
-    <t xml:space="preserve">誰かが祈りを捧げる声が聞こえる。
+    <t>誰かが祈りを捧げる声が聞こえる。
 「おお、この迷える子猫に道標の光を…」
 「祈りなさい。どんな時でも救いはあります」
 「他人を憎んではなりません」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Atone for you sin."
+    <t>"Atone for you sin."
 "Well, you need to be punished."
 "You sonova..."
 "Shit!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「償いなさい」
+    <t>「償いなさい」
 「あなたには罰が必要なようですね」
 「てめー♪」
 「くそがーっ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"God help me!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「おお、神よー」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Go to hell."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「地獄に墜ちなさい♪」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Chickenshit."
+    <t>"God help me!"</t>
+  </si>
+  <si>
+    <t>「おお、神よー」</t>
+  </si>
+  <si>
+    <t>"Go to hell."</t>
+  </si>
+  <si>
+    <t>「地獄に墜ちなさい♪」</t>
+  </si>
+  <si>
+    <t>punk</t>
+  </si>
+  <si>
+    <t>"Chickenshit."
 "Come on baby."
 "Ooh!"
 "Puke like a bitch!"
@@ -1195,7 +1203,7 @@
 "Come on."</t>
   </si>
   <si>
-    <t xml:space="preserve">「チキショー」
+    <t>「チキショー」
 「カモンベイベー」
 「ウラァ」
 「ヘドぶち吐きなッ！」
@@ -1203,7 +1211,7 @@
 「コラー」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Run!"
+    <t>"Run!"
 "You are nuts!"
 "FAQ!"
 "Bullshit."
@@ -1211,7 +1219,7 @@
 "I can't lose!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「逃げろぉぉ」
+    <t>「逃げろぉぉ」
 「お前プッツンしてるぜ」
 「くそったれー」
 「やめてくれー」
@@ -1219,94 +1227,94 @@
 「俺は負けんのだぁ」</t>
   </si>
   <si>
-    <t xml:space="preserve">「二度と俺を馬鹿にするな」
+    <t>「二度と俺を馬鹿にするな」
 「ギャハハハハ！」
 「ゴゥトゥヘル」</t>
   </si>
   <si>
-    <t xml:space="preserve">rich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Money, you want money right?
+    <t>rich</t>
+  </si>
+  <si>
+    <t>"Money, you want money right?
 "
 "Remove your filthy hands at once!"
 "Guards, help me!"
 "Money grubbing peasant!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「金か？金が欲しいのか？」
+    <t>「金か？金が欲しいのか？」
 「汚い手で触らないでくれるか」
 「周りの衆、見てないで助けぬか」
 「金の亡者め！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I won't give you a single coin."
+    <t>"I won't give you a single coin."
 "Oh my god…"
 "You bastard!"
 "I don't want to die…"
 "I'm glad I wrote a will."</t>
   </si>
   <si>
-    <t xml:space="preserve">「貴様には一銭もやらん…」
+    <t>「貴様には一銭もやらん…」
 「なんとまあ」
 「下衆め」
 「まだ死にたくないー…ぐぉ」
 「遺言書いといてよかったわ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Hmm…"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フン」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"No....no...!"
+    <t>"Hmm…"</t>
+  </si>
+  <si>
+    <t>「フン」</t>
+  </si>
+  <si>
+    <t>shojo</t>
+  </si>
+  <si>
+    <t>"No....no...!"
 "I'm sorry I failed you."</t>
   </si>
   <si>
-    <t xml:space="preserve">「きゃぁー」
+    <t>「きゃぁー」
 「ダメぇ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">The little girl brushes dust off her clothes.
+    <t>The little girl brushes dust off her clothes.
 The little girl smiles at you.
 You look admiringly at the little girl.</t>
   </si>
   <si>
-    <t xml:space="preserve">少女は服のほこりをはらった。
+    <t>少女は服のほこりをはらった。
 少女はあなたを見てにっこり笑った。
 あなたは少女に見とれた。</t>
   </si>
   <si>
-    <t xml:space="preserve">sister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"#onii"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「#onii」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"N...no!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ダメぇ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You pat your little sister's head.
+    <t>sister</t>
+  </si>
+  <si>
+    <t>"#onii"</t>
+  </si>
+  <si>
+    <t>「#onii」</t>
+  </si>
+  <si>
+    <t>"N...no!"</t>
+  </si>
+  <si>
+    <t>「ダメぇ！」</t>
+  </si>
+  <si>
+    <t>You pat your little sister's head.
 You narrow your eyes at your little sister.
 Your little sister glances up at you.</t>
   </si>
   <si>
-    <t xml:space="preserve">あなたは妹の頭をなでた。
+    <t>あなたは妹の頭をなでた。
 あなたは妹の姿に目を細めた。
 妹は上目づかいにあなたの顔を覗いた。</t>
   </si>
   <si>
-    <t xml:space="preserve">olderyoungersister</t>
+    <t>olderyoungersister</t>
   </si>
   <si>
     <t xml:space="preserve">"#onii"
@@ -1322,7 +1330,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「#onii」
+    <t>「#onii」
 「#onii」
 「#onii」
 「#onii」
@@ -1334,133 +1342,133 @@
 「大好きだよ、#brother2♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Move over, #brother2!"
+    <t>"Move over, #brother2!"
 "Don't touch #brother2!"
 "Watch me, #brother2♪"</t>
   </si>
   <si>
-    <t xml:space="preserve">「#brother2どいて！」
+    <t>「#brother2どいて！」
 「#brother2に触るな！」
 「#brother2、見ててね♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I can't...#brother2!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「#brother2、そいつ殺せない！ 」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stasha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The quiet majesty of the room makes you feel small.
+    <t>"I can't...#brother2!"</t>
+  </si>
+  <si>
+    <t>「#brother2、そいつ殺せない！ 」</t>
+  </si>
+  <si>
+    <t>stasha</t>
+  </si>
+  <si>
+    <t>The quiet majesty of the room makes you feel small.
 You note just how alert and well armed the guards are.
 Somewhere, a harpsichord is playing a tune befitting nobility.</t>
   </si>
   <si>
-    <t xml:space="preserve">荘厳な感じが漂っている。
+    <t>荘厳な感じが漂っている。
 辺りは厳重に警備されている。
 宮廷から華麗な音楽の響きが聞こえる。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Stop this!"
+    <t>"Stop this!"
 "Guards! Seize him!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「おやめなさい！」
+    <t>「おやめなさい！」
 「皆の者、この曲者をどうにかするのです」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I am sorry…"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「無念じゃ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Come, get rid of this unsightly corpse."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「さあ、この見苦しい死体を片付けるのです」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strangeScientist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The righteous path is not always easy, yes?"
+    <t>"I am sorry…"</t>
+  </si>
+  <si>
+    <t>「無念じゃ…」</t>
+  </si>
+  <si>
+    <t>"Come, get rid of this unsightly corpse."</t>
+  </si>
+  <si>
+    <t>「さあ、この見苦しい死体を片付けるのです」</t>
+  </si>
+  <si>
+    <t>strangeScientist</t>
+  </si>
+  <si>
+    <t>"The righteous path is not always easy, yes?"
 "I'll not have him hurt my Little ones… &amp;I've worked far too long on them to see them fail now."</t>
   </si>
   <si>
-    <t xml:space="preserve">「正しいことを行うのが&amp;時には難しいこともあるわ」
+    <t>「正しいことを行うのが&amp;時には難しいこともあるわ」
 「私の子供達を傷つけたらひどいわよ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"How can you do this?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「どうしてそんなことができるの？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Have you no heart?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「あなたには心がないの？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Don't harass me just because I am a tourist."
+    <t>"How can you do this?"</t>
+  </si>
+  <si>
+    <t>「どうしてそんなことができるの？」</t>
+  </si>
+  <si>
+    <t>"Have you no heart?"</t>
+  </si>
+  <si>
+    <t>「あなたには心がないの？」</t>
+  </si>
+  <si>
+    <t>tourist</t>
+  </si>
+  <si>
+    <t>"Don't harass me just because I am a tourist."
 "My, this country is dangerous."
 "This land is barbaric."
 "I don't have any money."</t>
   </si>
   <si>
-    <t xml:space="preserve">「観光客だからって馬鹿にするな」
+    <t>「観光客だからって馬鹿にするな」
 「なんて治安の悪い国だ」
 「野蛮な土地だな」
 「金などもってないぞ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I never should have came to &amp;a country like this!"
+    <t>"I never should have came to &amp;a country like this!"
 "It's a terrorist attack!"
 "No!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「こんな国二度とくるか」
+    <t>「こんな国二度とくるか」
 「無差別テロだー」
 「いやーん」</t>
   </si>
   <si>
-    <t xml:space="preserve">"So weak."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「弱い弱い」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist_festival</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Let's check the food stall."
+    <t>"So weak."</t>
+  </si>
+  <si>
+    <t>「弱い弱い」</t>
+  </si>
+  <si>
+    <t>tourist_festival</t>
+  </si>
+  <si>
+    <t>"Let's check the food stall."
 "No! I want to play a little longer!"
 "What a noisy street."
 "Oh my god!"
 "Aha, some human garbage."</t>
   </si>
   <si>
-    <t xml:space="preserve">「屋台でおいしいもの売ってるかな？」
+    <t>「屋台でおいしいもの売ってるかな？」
 「今日ははじけるぜ」
 「なんとも騒々しい{な}」
 「すげえ！」
 「人がゴミのよう{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">@tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tourist_hotspring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Nice hot bath!"
+    <t>@tourist</t>
+  </si>
+  <si>
+    <t>tourist_hotspring</t>
+  </si>
+  <si>
+    <t>"Nice hot bath!"
 "Which hot spring I should visit next?"
 "I get hungry after coming out of the hot spring."
 "My body is starting to feel warm and toasty."
@@ -1468,7 +1476,7 @@
 You smell the scent of the hot spring.</t>
   </si>
   <si>
-    <t xml:space="preserve">「いい湯{だ}」
+    <t>「いい湯{だ}」
 「 次はどこの温泉にしようかな」
 「温泉から上がるとお腹が空くよね」 
 「 体がポカポカしてきた {のだ}」
@@ -1476,10 +1484,10 @@
 温泉の香りがする。</t>
   </si>
   <si>
-    <t xml:space="preserve">mermaid_hotspring</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ah, this is nice～"
+    <t>mermaid_hotspring</t>
+  </si>
+  <si>
+    <t>"Ah, this is nice～"
 "Lalala～"
 "Lanlanlan"
 "Ufufu"
@@ -1488,7 +1496,7 @@
 You smell the scent of the hot spring.</t>
   </si>
   <si>
-    <t xml:space="preserve">「あ～いいわ～」
+    <t>「あ～いいわ～」
 「ラララ～」
 「ランラン」
 「うふふ」
@@ -1497,59 +1505,59 @@
 温泉の香りがする。</t>
   </si>
   <si>
-    <t xml:space="preserve">"That's not allowed!"
+    <t>"That's not allowed!"
 "Stop that!"
 "I'm going to splash you with hot water!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「だめです！」
+    <t>「だめです！」
 「やめなさい！」
 「お湯を掛けますよ？」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Aahn♪"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ああん♪」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You've brought this upon yourself."
+    <t>"Aahn♪"</t>
+  </si>
+  <si>
+    <t>「ああん♪」</t>
+  </si>
+  <si>
+    <t>"You've brought this upon yourself."
 "Serves you right, pest♪"</t>
   </si>
   <si>
-    <t xml:space="preserve">「自業自得です」
+    <t>「自業自得です」
 「ゴミ虫が♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">xabi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Are you mad?"
+    <t>xabi</t>
+  </si>
+  <si>
+    <t>"Are you mad?"
 "Guards! Seize them!"
 "You've lost your mind!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「おお、乱心者だ！」
+    <t>「おお、乱心者だ！」
 「近衛兵、何をしている。奴をとらえよ！」
 「血迷ったか！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Useless soldiers."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「役に立たない兵どもだ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Fool."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「愚か者め」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sailor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It be a while since I be on dry land."
+    <t>"Useless soldiers."</t>
+  </si>
+  <si>
+    <t>「役に立たない兵どもだ」</t>
+  </si>
+  <si>
+    <t>"Fool."</t>
+  </si>
+  <si>
+    <t>「愚か者め」</t>
+  </si>
+  <si>
+    <t>sailor</t>
+  </si>
+  <si>
+    <t>"It be a while since I be on dry land."
 "Smell that sea breeze!"
 "Ahoy!"
 "Ahoooy!"
@@ -1559,7 +1567,7 @@
 You tuned in to the sailor's lively song.</t>
   </si>
   <si>
-    <t xml:space="preserve">「陸は久しぶり{だ}」
+    <t>「陸は久しぶり{だ}」
 「潮風が香るぜ！」
 「アホイ！」
 「アホーイ！」
@@ -1569,35 +1577,35 @@
 あなたは水夫の快活な歌に耳を傾けた。</t>
   </si>
   <si>
-    <t xml:space="preserve">scholar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hmmm...I see."
+    <t>scholar</t>
+  </si>
+  <si>
+    <t>"Hmmm...I see."
 "What’s the meaning of this?"
 "Books are a source of wisdom."
 "Eureka!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ふむふむ」
+    <t>「ふむふむ」
 「これはどういう意味{だ}？」
 「書物は知恵の宝庫{だ}」
 「エウレーカ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"There is a book I think you'll love."
+    <t>"There is a book I think you'll love."
 "Need some new knowledge?"
 "I’ve got new books."</t>
   </si>
   <si>
-    <t xml:space="preserve">「とっておきの本が{ある}」
+    <t>「とっておきの本が{ある}」
 「新しい知識が必要かな？」
 「新作を入荷した{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">snail_torturer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh dear, oh dear."
+    <t>snail_torturer</t>
+  </si>
+  <si>
+    <t>"Oh dear, oh dear."
 "All slimy, aren’t you?"
 "Such a little snaily."
 "Hopelessly snaily, aren’t you?"
@@ -1610,7 +1618,7 @@
 "Bad, bad snaily."</t>
   </si>
   <si>
-    <t xml:space="preserve">「あらあら」
+    <t>「あらあら」
 「ヌルヌルしちゃって」
 「困ったかたつむりね」
 「どうしようもないかたつむりね」
@@ -1623,155 +1631,155 @@
 「悪いかたつむりね」</t>
   </si>
   <si>
-    <t xml:space="preserve">healer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You need the hand of a healer?"
+    <t>healer</t>
+  </si>
+  <si>
+    <t>"You need the hand of a healer?"
 "Are you alright?"
 "Oh, another adventurer."</t>
   </si>
   <si>
-    <t xml:space="preserve">「癒やしの手が必要{か}？」
+    <t>「癒やしの手が必要{か}？」
 「体は大丈夫{か}？」
 「{おや}、また冒険者{か}」</t>
   </si>
   <si>
-    <t xml:space="preserve">@nun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">informer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*whispering*
+    <t>@nun</t>
+  </si>
+  <si>
+    <t>informer</t>
+  </si>
+  <si>
+    <t>*whispering*
 "I've got a good story for you."
 "Oh!"
 "I know now."</t>
   </si>
   <si>
-    <t xml:space="preserve">*ひそひそ*
+    <t>*ひそひそ*
 「いいネタを仕入れたぞ」
 「ほう！」
 「ははーん」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I have interesting information."
+    <t>"I have interesting information."
 "Want to buy a story?"
 "Sir, I got great news for you."</t>
   </si>
   <si>
-    <t xml:space="preserve">「耳寄りの情報が{ある}！」
+    <t>「耳寄りの情報が{ある}！」
 「ネタを買っていかない{か}？」
 「旦那、いい話がある{よ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">@merchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dealer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You are wicked too, aren't you?"
+    <t>@merchant</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>"You are wicked too, aren't you?"
 "Heh heh heh..."
 "This way..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ヒヒヒ、旦那も悪だねぇ」
+    <t>「ヒヒヒ、旦那も悪だねぇ」
 「へへへ…」
 「こっち{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">@punk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fanatic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh Lord."
+    <t>@punk</t>
+  </si>
+  <si>
+    <t>fanatic</t>
+  </si>
+  <si>
+    <t>"Oh Lord."
 "A poor lamb."
 "All is for Thee."
 You hear fervent prayers.</t>
   </si>
   <si>
-    <t xml:space="preserve">「おお神よ」
+    <t>「おお神よ」
 「憐れな子羊{だ}」
 「全ては御身のために」
 熱心な祈りの声が聞こえる。</t>
   </si>
   <si>
-    <t xml:space="preserve">"You heathen!"
+    <t>"You heathen!"
 "Blasphemy!"
 "How dare you!"
 "Kill! Kill!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「この異教徒め！」
+    <t>「この異教徒め！」
 「冒涜{だ}！」
 「なんと恐れおおいことを！」
 「殺せ殺せ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Oh God…!"
+    <t>"Oh God…!"
 "I shall come to Thee, my God!"
 "May God curse you!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「神よ…！」
+    <t>「神よ…！」
 「今あなたの御許に」
 「貴様に神の呪いあれ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Repent!"
+    <t>"Repent!"
 "You got what you deserve."
  "A fitting death for a heathen."</t>
   </si>
   <si>
-    <t xml:space="preserve">「悔い改めよ」
+    <t>「悔い改めよ」
 「当然の報い{だ}」
 「異教徒にふさわしい死{だ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">ashland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear someone tending to their weapons.
+    <t>ashland</t>
+  </si>
+  <si>
+    <t>You hear someone tending to their weapons.
 "The pies in the Willow's kitchen &amp;are the best!"
 "What's going to happen to Mysilia now?"
 "Stay out of the old forest."
 "Hey...This place doesn’t look too bad."</t>
   </si>
   <si>
-    <t xml:space="preserve">誰かが武器の手入れをする音が聞こえる。
+    <t>誰かが武器の手入れをする音が聞こえる。
 「ウィロウのキッチンのパイは絶品だ！」
 「ミシリアはこれからどうなってしまうんだ？」
 「古い森には近づかないことだ」
 「この土地も、なかなか住み心地が&amp;よさそうじゃないか」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Good grief."
+    <t>"Good grief."
 "In a hurry to die, are you?"
 "This is troublesome."</t>
   </si>
   <si>
-    <t xml:space="preserve">「やれやれ」
+    <t>「やれやれ」
 「死に急ぎたいのか？」
 「困ったな」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Fia... my apologies."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「フィア…すまない」</t>
+    <t>"Fia... my apologies."</t>
+  </si>
+  <si>
+    <t>「フィア…すまない」</t>
   </si>
   <si>
     <t xml:space="preserve">"Is it over already?"
 "That's unfortunate." </t>
   </si>
   <si>
-    <t xml:space="preserve">「もう終わりか？」
+    <t>「もう終わりか？」
 「残念だったな」</t>
   </si>
   <si>
-    <t xml:space="preserve">fiama</t>
+    <t>fiama</t>
   </si>
   <si>
     <t xml:space="preserve">You are stunned by the face of a girl who as beautiful as an Elean.
@@ -1790,55 +1798,55 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"You need to be disciplined."
+    <t>"You need to be disciplined."
 "How foolish."
 "Stop it!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「躾が必要ね」
+    <t>「躾が必要ね」
 「愚かね」
 「やめなさい！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ash...!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「アッシュ…！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiama brushes the dust off her clothes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">フィアマは服のほこりを払った。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mayor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What do you want?"
+    <t>"Ash...!"</t>
+  </si>
+  <si>
+    <t>「アッシュ…！」</t>
+  </si>
+  <si>
+    <t>Fiama brushes the dust off her clothes.</t>
+  </si>
+  <si>
+    <t>フィアマは服のほこりを払った。</t>
+  </si>
+  <si>
+    <t>mayor</t>
+  </si>
+  <si>
+    <t>"What do you want?"
 "Make it quick."
 "Well, adventurer?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「用件は何{だ}？」
+    <t>「用件は何{だ}？」
 「手短にして{くれ}」
 「{おや}、冒険者が何の用{だ}？」</t>
   </si>
   <si>
-    <t xml:space="preserve">mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I can evaluate anything."
+    <t>mage</t>
+  </si>
+  <si>
+    <t>"I can evaluate anything."
 "Do you need an appraiser?"
 "Leave magic items to me."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なんでも鑑定する{よ}」
+    <t>「なんでも鑑定する{よ}」
 「目利きは必要{か}？」
 「魔道具のことなら任せて{くれ}」</t>
   </si>
   <si>
-    <t xml:space="preserve">seeker</t>
+    <t>seeker</t>
   </si>
   <si>
     <t xml:space="preserve">"Well...When the raven flies her tail follows... "
@@ -1855,7 +1863,7 @@
 誰かが執筆する音が聞こえた。 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Is this your philosophy?"
+    <t>"Is this your philosophy?"
 "Show me your story."
 "This world is dangerous."
 "Hey, don't damage the book."</t>
@@ -1867,22 +1875,22 @@
 「こら、本を傷つけるんじゃない」 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Perhaps I shall explore the afterlife next..."</t>
+    <t>"Perhaps I shall explore the afterlife next..."</t>
   </si>
   <si>
     <t xml:space="preserve">「仕方がない…次は死後の世界を探究するか…」 </t>
   </si>
   <si>
-    <t xml:space="preserve">"So that's your story... A sad ending."</t>
+    <t>"So that's your story... A sad ending."</t>
   </si>
   <si>
     <t xml:space="preserve">「それが君の物語か…さみしい結末だな」 </t>
   </si>
   <si>
-    <t xml:space="preserve">ineien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone muttered in a mysterious ancient language.
+    <t>ineien</t>
+  </si>
+  <si>
+    <t>Someone muttered in a mysterious ancient language.
 Beautiful tunes of lyra are come from somewhere.
 "Friaune..."
 "I am left alone in this stone keep."
@@ -1890,7 +1898,7 @@
 You feel an uneasy premonition.</t>
   </si>
   <si>
-    <t xml:space="preserve">神秘的な古代の言葉で誰かが呟いた。
+    <t>神秘的な古代の言葉で誰かが呟いた。
 どこからかリラの美しい音色が聴こえる。
 「フリアウネ…」
 「私は石の砦に一人取り残されてしまった」
@@ -1898,385 +1906,385 @@
 あなたは妙な胸騒ぎを覚えた。</t>
   </si>
   <si>
-    <t xml:space="preserve">jonan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Someone muttered weakly to himself.
+    <t>jonan</t>
+  </si>
+  <si>
+    <t>Someone muttered weakly to himself.
 "I shall never be forgiven..."
 "All for the sake of Mysilia."
 "Why doesn't Vindale respond to us?"</t>
   </si>
   <si>
-    <t xml:space="preserve">誰かが弱々しく独り言を呟いた。
+    <t>誰かが弱々しく独り言を呟いた。
 「私が許されることはないだろう…」
 「全てはミシリアのため」
 「なぜヴィンデールは何も応えてくれない？」</t>
   </si>
   <si>
-    <t xml:space="preserve">lowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear a hearty laugh.
+    <t>lowell</t>
+  </si>
+  <si>
+    <t>You hear a hearty laugh.
 You sense curious eyes.
 "Oh, do we have a guest?"
 "The children are Mysilia's little hope."</t>
   </si>
   <si>
-    <t xml:space="preserve">屈託ない笑い声が聴こえる。
+    <t>屈託ない笑い声が聴こえる。
 あなたは好奇の眼差しを感じた。
 「おや、客人かな？」
 「子どもたちはミシリアの小さな希望だよ」</t>
   </si>
   <si>
-    <t xml:space="preserve">zane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The place is filled with tension.
+    <t>zane</t>
+  </si>
+  <si>
+    <t>The place is filled with tension.
 Someone scolded in a loud voice.
 "How can I trust him with the throne of Palmia?"
 A king is just another cog in the wheel.
 There are only foxes and raccoons in the Council.</t>
   </si>
   <si>
-    <t xml:space="preserve">辺りは緊張感に包まれている。
+    <t>辺りは緊張感に包まれている。
 誰かが大きな声で叱責した。
 「あれにパルミアの王座を任せられるのだろうか？」
 「王もまた、歯車の一つに過ぎないのだ」
 「議会には狐と狸しかおらぬ」</t>
   </si>
   <si>
-    <t xml:space="preserve">chicken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「コココ…」
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>「コココ…」
 「コ…」
 「コケーッ」
 「コッコッ」</t>
   </si>
   <si>
-    <t xml:space="preserve">「コケー！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sheep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「メェェ」
+    <t>「コケー！」</t>
+  </si>
+  <si>
+    <t>sheep</t>
+  </si>
+  <si>
+    <t>「メェェ」
 「メ～」
 「メェエェェェ」
 「メ～♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「メー！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ワン」
+    <t>「メー！」</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>「ワン」
 「ワンワン！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「おぉおん！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「くぅん…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Woof!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ワオーン！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poppy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear the high pitched yips of a young dog.
+    <t>「おぉおん！」</t>
+  </si>
+  <si>
+    <t>「くぅん…」</t>
+  </si>
+  <si>
+    <t>"Woof!"</t>
+  </si>
+  <si>
+    <t>「ワオーン！」</t>
+  </si>
+  <si>
+    <t>poppy</t>
+  </si>
+  <si>
+    <t>You hear the high pitched yips of a young dog.
 A plaintive howl is heard in the distance.
 "Rowf!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「くぅ～」
+    <t>「くぅ～」
 「ぁぅぁぅ」
 「ぅ～」</t>
   </si>
   <si>
-    <t xml:space="preserve">「クゥン…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「わん！」
+    <t>「クゥン…」</t>
+  </si>
+  <si>
+    <t>「わん！」
 「ぁぅぁぅ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">putty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*putit*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ぷちゅっ*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*zzzzle*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*ズルズル…*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*oink*
+    <t>putty</t>
+  </si>
+  <si>
+    <t>*putit*</t>
+  </si>
+  <si>
+    <t>*ぷちゅっ*</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>*zzzzle*</t>
+  </si>
+  <si>
+    <t>*ズルズル…*</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>*oink*
 *oink oink*</t>
   </si>
   <si>
-    <t xml:space="preserve">「ブー」
+    <t>「ブー」
 「ブヒ」</t>
   </si>
   <si>
-    <t xml:space="preserve">rat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Squeak"
+    <t>rat</t>
+  </si>
+  <si>
+    <t>"Squeak"
 "Squeak-squeak"
 "Squeak"</t>
   </si>
   <si>
-    <t xml:space="preserve">「チュー」
+    <t>「チュー」
 「チュチュ」
 「ちゅ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Squeak!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「チュー！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You hear cheerful music.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">愉快な音楽が聞こえる。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Back to practice."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「出直してくる」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「モー」
+    <t>"Squeak!"</t>
+  </si>
+  <si>
+    <t>「チュー！」</t>
+  </si>
+  <si>
+    <t>performer</t>
+  </si>
+  <si>
+    <t>You hear cheerful music.</t>
+  </si>
+  <si>
+    <t>愉快な音楽が聞こえる。</t>
+  </si>
+  <si>
+    <t>"Back to practice."</t>
+  </si>
+  <si>
+    <t>「出直してくる」</t>
+  </si>
+  <si>
+    <t>cow</t>
+  </si>
+  <si>
+    <t>「モー」
 「モォー」
 「モォオォォォ」</t>
   </si>
   <si>
-    <t xml:space="preserve">maid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Oh Master, how can I help you♪"
+    <t>maid</t>
+  </si>
+  <si>
+    <t>"Oh Master, how can I help you♪"
 You can feel the maid looking at you...
 "Gosh, so busy!"
 "All set!"
 "#title♪"</t>
   </si>
   <si>
-    <t xml:space="preserve">「用事はありませんか♪」
+    <t>「用事はありませんか♪」
 メイドの熱い視線を感じる…
 「ああ、忙しい{よ}！」
 「{よし}」
 「#title様♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「おいたが過ぎますよ！」
+    <t>「おいたが過ぎますよ！」
 「お仕置きです！」</t>
   </si>
   <si>
-    <t xml:space="preserve">theolucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I wonder what the runic translation of this is..."
+    <t>theolucia</t>
+  </si>
+  <si>
+    <t>"I wonder what the runic translation of this is..."
 You hear someone arranging books on shelves.
 "Sis, you made a mess again!"
 "Ta-la-la♪"</t>
   </si>
   <si>
-    <t xml:space="preserve">「この文はどういう意味かしら…」
+    <t>「この文はどういう意味かしら…」
 誰かが本を整理する音が聞こえる。
 「姉さんったら、また散らかして！」
 「ふんふん♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Stop it, please!"
+    <t>"Stop it, please!"
 "Why are you doing this?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「やめてください！」
+    <t>「やめてください！」
 「あなたは、そんな人だったのですね」</t>
   </si>
   <si>
-    <t xml:space="preserve">"How can you...."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「ひどい…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You are useless!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この役立たず！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">farris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"O, Elin the White Widow, &amp;her fading face in the light of the full moon."
+    <t>"How can you...."</t>
+  </si>
+  <si>
+    <t>「ひどい…」</t>
+  </si>
+  <si>
+    <t>"You are useless!"</t>
+  </si>
+  <si>
+    <t>「この役立たず！」</t>
+  </si>
+  <si>
+    <t>farris</t>
+  </si>
+  <si>
+    <t>"O, Elin the White Widow, &amp;her fading face in the light of the full moon."
 "What are you looking at?"
 "O Odina, Goddess of compassion, &amp;I shall offer my song in thy sacrifice."
 "The light that lies in the cloudless sky, &amp;the red-haired duke who dispels the everlasting darkness!"
 You felt a cold gaze behind you.</t>
   </si>
   <si>
-    <t xml:space="preserve">「おお、白き寡婦エリン、&amp;天満月に照らされる物憂い面影よ」
+    <t>「おお、白き寡婦エリン、&amp;天満月に照らされる物憂い面影よ」
 「何を見ているのですか？」
 「おお、慈愛の女神オディナよ、&amp;汝の犠牲に我が歌を捧げん」
 「雲なきみ空に横とう光、&amp;常闇を払いし赤髪の公子よ！」
 あなたは背後に冷たい視線を感じた。</t>
   </si>
   <si>
-    <t xml:space="preserve">lady</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Eek!"
+    <t>lady</t>
+  </si>
+  <si>
+    <t>"Eek!"
 "No way!"</t>
   </si>
   <si>
-    <t xml:space="preserve">The young lady brushes off the dust from her clothes.
+    <t>The young lady brushes off the dust from her clothes.
 The young lady looks at you and smiles brightly.
 You were captivated by the young lady.
 "Ufufu♪"</t>
   </si>
   <si>
-    <t xml:space="preserve">嬢は服のほこりをはらった。
+    <t>嬢は服のほこりをはらった。
 嬢はあなたを見てにっこり笑った。
 あなたは嬢に見とれた。
 「うふふ♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">banker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Welcome."
+    <t>banker</t>
+  </si>
+  <si>
+    <t>"Welcome."
 "It's not wise to carry around so much money."
 "It's all about the money!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「いらっしゃい」
+    <t>「いらっしゃい」
 「大金を持ち歩くのは不用心{だよ}」
 「金が全て{だ}！」</t>
   </si>
   <si>
-    <t xml:space="preserve">guild_doorman_mage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stop... Let me make sure you are on my lists."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「止まれ…身分を照会させてもらう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Beyond here is the jurisdiction of the Mages Guild."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この先は魔術士ギルドの管轄だ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guild_doorman_fighter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stop… Let me make sure you are on my lists."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Beyond here is the jurisdiction of the Fighters Guild."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この先は戦士ギルドの管轄だ」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guild_doorman_thief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Stop. Let me make sure you are on my lists..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「止まりなさい。身分の照会が必要よ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Beyond here is the jurisdiction of the Thieves Guild..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「この先は盗賊ギルドの管轄…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eluminaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*snooze*
+    <t>guild_doorman_mage</t>
+  </si>
+  <si>
+    <t>"Stop... Let me make sure you are on my lists."</t>
+  </si>
+  <si>
+    <t>「止まれ…身分を照会させてもらう」</t>
+  </si>
+  <si>
+    <t>"Beyond here is the jurisdiction of the Mages Guild."</t>
+  </si>
+  <si>
+    <t>「この先は魔術士ギルドの管轄だ」</t>
+  </si>
+  <si>
+    <t>guild_doorman_fighter</t>
+  </si>
+  <si>
+    <t>"Stop… Let me make sure you are on my lists."</t>
+  </si>
+  <si>
+    <t>"Beyond here is the jurisdiction of the Fighters Guild."</t>
+  </si>
+  <si>
+    <t>「この先は戦士ギルドの管轄だ」</t>
+  </si>
+  <si>
+    <t>guild_doorman_thief</t>
+  </si>
+  <si>
+    <t>"Stop. Let me make sure you are on my lists..."</t>
+  </si>
+  <si>
+    <t>「止まりなさい。身分の照会が必要よ…」</t>
+  </si>
+  <si>
+    <t>"Beyond here is the jurisdiction of the Thieves Guild..."</t>
+  </si>
+  <si>
+    <t>「この先は盗賊ギルドの管轄…」</t>
+  </si>
+  <si>
+    <t>eluminaire</t>
+  </si>
+  <si>
+    <t>*snooze*
 *nap*
 "...oh!"</t>
   </si>
   <si>
-    <t xml:space="preserve">*スヤスヤ*
+    <t>*スヤスヤ*
 「むにゅむにゃ」
 「…はっ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">ephrond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Humph, fools."
+    <t>ephrond</t>
+  </si>
+  <si>
+    <t>"Humph, fools."
 "Where's that wench?"
 "I told her to stay close!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ふん、阿呆共が」
+    <t>「ふん、阿呆共が」
 「あのグズはどこへ行った？」
 「あれほど離れるなといったのに！」</t>
   </si>
   <si>
-    <t xml:space="preserve">barrich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Don't be such a killjoy."
+    <t>barrich</t>
+  </si>
+  <si>
+    <t>"Don't be such a killjoy."
 "Oh, I've come up with a great phrase!"
 "God, what a nagging bald-headed old man."
 "Hey, hey, where are all the ladies?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「しけてんねぇ」
+    <t>「しけてんねぇ」
 「おお、いい一節を思いついたぞ！」
 「まあなんと口うるさいハゲ親父だ」
 「おいおい、御婦人方はどこへ行ってしまったんだ？」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Care for a song or two?"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「一曲聴いていくかい？」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">big_daddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You feel the ground tremble with the steps of a large, angry  Protector.
+    <t>"Care for a song or two?"</t>
+  </si>
+  <si>
+    <t>「一曲聴いていくかい？」</t>
+  </si>
+  <si>
+    <t>big_daddy</t>
+  </si>
+  <si>
+    <t>You feel the ground tremble with the steps of a large, angry  Protector.
 Little Sister: "Look #bigdaddy, the angel."
 Little Sister: "Look #bigdaddy, the angels are dancing in the sky!"
 You hear the tread of something you do NOT want to anger. Ever.
@@ -2289,32 +2297,32 @@
  *ドン*</t>
   </si>
   <si>
-    <t xml:space="preserve">Little Sister: "Kill! Kill!"
+    <t>Little Sister: "Kill! Kill!"
 Little Sister: "Smash it into pieces!"
 Little Sister: "Go #bigdaddy, go!!"</t>
   </si>
   <si>
-    <t xml:space="preserve">リトルシスター「殺せ！殺せ！」
+    <t>リトルシスター「殺せ！殺せ！」
 リトルシスター「粉々に砕いちゃいなさい！」
 リトルシスター「いけ#bigdaddy、いけ！！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"ROAAARR!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「グウォォォォ！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Sister: "Fill your belly with the angel's blood."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">リトルシスター「天使の血でお腹を満たすの」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"You are far from perfect!"
+    <t>"ROAAARR!"</t>
+  </si>
+  <si>
+    <t>「グウォォォォ！」</t>
+  </si>
+  <si>
+    <t>Little Sister: "Fill your belly with the angel's blood."</t>
+  </si>
+  <si>
+    <t>リトルシスター「天使の血でお腹を満たすの」</t>
+  </si>
+  <si>
+    <t>melvin</t>
+  </si>
+  <si>
+    <t>"You are far from perfect!"
 "Keep calm."
 "A true bow never lies."
 "Ladies, please stay back!"
@@ -2322,7 +2330,7 @@
 "Don't even think of smacking your enemy with your bow."</t>
   </si>
   <si>
-    <t xml:space="preserve">「まだまだなっていないぞ！」
+    <t>「まだまだなっていないぞ！」
 「平常心を保て」
 「真の弓は偽らない」
 「御婦人方、危険だから下がって！」
@@ -2330,91 +2338,91 @@
 「弓で殴ろうなんて思うなよ」</t>
   </si>
   <si>
-    <t xml:space="preserve">caldorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Young people these days are unbelievable."
+    <t>caldorn</t>
+  </si>
+  <si>
+    <t>"Young people these days are unbelievable."
 "Pull your socks up!"
 "Correct your behaviour!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「まったく近頃の若い者は…」
+    <t>「まったく近頃の若い者は…」
 「たるんでおる！」
 「ふぬけておる！」</t>
   </si>
   <si>
-    <t xml:space="preserve">melilith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">melilith_boss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Don't leave me alone again..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「もうひとりにしないで…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The old ones bring forth calamity."
+    <t>melilith</t>
+  </si>
+  <si>
+    <t>melilith_boss</t>
+  </si>
+  <si>
+    <t>"Don't leave me alone again..."</t>
+  </si>
+  <si>
+    <t>「もうひとりにしないで…」</t>
+  </si>
+  <si>
+    <t>demitas</t>
+  </si>
+  <si>
+    <t>"The old ones bring forth calamity."
 "Heh heh heh..."
 "Myths shall lose their truth in the desert of time."
 "Gods be arrogant."
 "In that moment, I..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「古き者たちは災いをもたらす」
+    <t>「古き者たちは災いをもたらす」
 「ククク…」
 「神話は、時の砂漠で真実を失うだろう」
 「神々は傲慢だ」
 「あの時、我は…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Heh... heh..."
+    <t>"Heh... heh..."
 "Dost thou seek ruin?"
 "Wilt thou raise thy blade 'gainst me?"
 "Show me thy might."</t>
   </si>
   <si>
-    <t xml:space="preserve">「クク…」
+    <t>「クク…」
 「破滅を望むか」
 「我に刃を向けるか」
 「汝の力、見せてもらおう」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Forgive me, Telessia..."
+    <t>"Forgive me, Telessia..."
 "Let us return unto the darkness."
 "Heh heh heh..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「すまぬ、テレシア…」
+    <t>「すまぬ、テレシア…」
 「闇へと還ろう」
 「ククク…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Heh heh heh..."
+    <t>"Heh heh heh..."
 "Fool."
 "Return unto the darkness."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ククク…」
+    <t>「ククク…」
 「愚かなり」
 「闇へと還るがよい」</t>
   </si>
   <si>
-    <t xml:space="preserve">loytel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Pioneering is truly an art."
+    <t>loytel</t>
+  </si>
+  <si>
+    <t>"Pioneering is truly an art."
 "One must thoroughly plan."
 "This land holds a promising future."
 "It's good to have a vacation once in a while."
 "Olvina's wine is unmatched."</t>
   </si>
   <si>
-    <t xml:space="preserve">「開拓とは芸術なのだ」
+    <t>「開拓とは芸術なのだ」
 「計画は十分に練らねばな」
 「将来が楽しみだな！」
 「たまの休暇もいいものだ」
@@ -2426,59 +2434,59 @@
 "What is the meaning of this!" </t>
   </si>
   <si>
-    <t xml:space="preserve">「なんということだ！」
+    <t>「なんということだ！」
 「何の真似だ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"My head hurts..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「頭痛が…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Hmph."
+    <t>"My head hurts..."</t>
+  </si>
+  <si>
+    <t>「頭痛が…」</t>
+  </si>
+  <si>
+    <t>"Hmph."
 "Serves you right!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「ふん」
+    <t>「ふん」
 「いいざまだ！」</t>
   </si>
   <si>
-    <t xml:space="preserve">quru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You feel like someone is staring at you intently.
+    <t>quru</t>
+  </si>
+  <si>
+    <t>You feel like someone is staring at you intently.
 Someone whispers a spell softly.
 You think you heard a faint humming.</t>
   </si>
   <si>
-    <t xml:space="preserve">誰かにじっと見つめられている気がした。
+    <t>誰かにじっと見つめられている気がした。
 小声で誰かが呪文を呟いた。
 微かな鼻歌が聞こえたような気がした。</t>
   </si>
   <si>
-    <t xml:space="preserve">"Foolish."
+    <t>"Foolish."
 "You wish to die."
 "Stop."
 "..."</t>
   </si>
   <si>
-    <t xml:space="preserve">「愚かな」
+    <t>「愚かな」
 「やめて」
 「死にたいの？」
 「…」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Die!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「死ね！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kettle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You feel as if the wind is playfully poking you.
+    <t>"Die!"</t>
+  </si>
+  <si>
+    <t>「死ね！」</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>You feel as if the wind is playfully poking you.
 You sense someone's warm gaze.
 "Let's listen to the melody of the wind."
 "This little potion bottle &amp;can contain a piece of the world."
@@ -2491,7 +2499,7 @@
 "The sound of water is the oldest storyteller."</t>
   </si>
   <si>
-    <t xml:space="preserve">風が悪戯っぽくあなたをつついた気がした。
+    <t>風が悪戯っぽくあなたをつついた気がした。
 誰かの暖かい視線を感じた。
 「風の旋律に耳を傾けよう」
 「この小さな薬瓶に&amp;世界の一片を閉じ込めよう」
@@ -2504,78 +2512,78 @@
 「 水の音は最も古い語り部だ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I don't like this, but..."
+    <t>"I don't like this, but..."
 "If it can't be helped."
 "If that's what you wish for."</t>
   </si>
   <si>
-    <t xml:space="preserve">「争いは好まないが…」
+    <t>「争いは好まないが…」
 「仕方がない」
 「それがお望みなら」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I'll come to you now."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「君の元に行こう」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"It's a pity."
+    <t>"I'll come to you now."</t>
+  </si>
+  <si>
+    <t>「君の元に行こう」</t>
+  </si>
+  <si>
+    <t>"It's a pity."
 "Rest in peace."
 "You don't have to suffer anymore."</t>
   </si>
   <si>
-    <t xml:space="preserve">「残念だよ」
+    <t>「残念だよ」
 「安らかに眠れ」
 「もう苦しまなくていい」</t>
   </si>
   <si>
-    <t xml:space="preserve">defender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You feel you are protected.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">誰かに守られている気がする。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'm sorry, my master..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「主よ、お許しください…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The defender brushes dust off #his clothes.
+    <t>defender</t>
+  </si>
+  <si>
+    <t>You feel you are protected.</t>
+  </si>
+  <si>
+    <t>誰かに守られている気がする。</t>
+  </si>
+  <si>
+    <t>"I'm sorry, my master..."</t>
+  </si>
+  <si>
+    <t>「主よ、お許しください…」</t>
+  </si>
+  <si>
+    <t>The defender brushes dust off #his clothes.
 The defender smiles at you.</t>
   </si>
   <si>
-    <t xml:space="preserve">防衛者は服のほこりをはらった。
+    <t>防衛者は服のほこりをはらった。
 防衛者はあなたに微笑んだ。</t>
   </si>
   <si>
-    <t xml:space="preserve">adv_kiria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Someday, I will find my creator, and punch him."
+    <t>adv_kiria</t>
+  </si>
+  <si>
+    <t>"Someday, I will find my creator, and punch him."
 "Have you met any doll fanatics? &amp;I need to punish one..."
 "... I'm not scrap."</t>
   </si>
   <si>
-    <t xml:space="preserve">「いつか私の製造者を見つけて殴ってやるの」
+    <t>「いつか私の製造者を見つけて殴ってやるの」
 「人形愛好者は懲らしめなければなりません…」
 「…私はスクラップではないです」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I... must have gotten... rusty..."</t>
+    <t>"I... must have gotten... rusty..."</t>
   </si>
   <si>
     <t xml:space="preserve">「私…さびついてしまったようです…」 </t>
   </si>
   <si>
-    <t xml:space="preserve">adv_gaki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Weakling."
+    <t>adv_gaki</t>
+  </si>
+  <si>
+    <t>"Weakling."
 "Weakling?"
 "Weak-weak-weaaklnig♪"
 "Weaakling-weaakling♥"
@@ -2583,7 +2591,7 @@
 Gaki grins wickedly.</t>
   </si>
   <si>
-    <t xml:space="preserve">「ざこ」 
+    <t>「ざこ」 
 「ざこ？」
 「ざこざこざーこ♪」
 「ざぁこざぁこ♥」 
@@ -2606,7 +2614,7 @@
 「ざぁ～こぉ～」 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Weakling…"
+    <t>"Weakling…"
 "Weaaaaakling!!"</t>
   </si>
   <si>
@@ -2625,17 +2633,17 @@
 「ざこざこざこざこざこざこざこざこ」 </t>
   </si>
   <si>
-    <t xml:space="preserve">adv_verna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"The shadow is my mirror."
+    <t>adv_verna</t>
+  </si>
+  <si>
+    <t>"The shadow is my mirror."
 "I'm not afraid of the dark. Are you?"
 "Do you want to touch my wings?"
 "Makes me want to go somewhere far away."
 "This world is strange, isn't it?"</t>
   </si>
   <si>
-    <t xml:space="preserve">「影は、私の鏡」
+    <t>「影は、私の鏡」
 「暗闇は怖くない。君はどうかな？」
 「 この翼、触ってみる？ 」
 「 どこか遠くに行きたくなるわ」
@@ -2649,19 +2657,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「影よ、さあ共に舞おう」
+    <t>「影よ、さあ共に舞おう」
 「瞬きする間に終わらせるわ」
 「哀れね」
 「影よ集え」</t>
   </si>
   <si>
-    <t xml:space="preserve">"This world is too bright for me."</t>
+    <t>"This world is too bright for me."</t>
   </si>
   <si>
     <t xml:space="preserve">「この世界は眩しすぎるわ」 </t>
   </si>
   <si>
-    <t xml:space="preserve">"Goodbye."
+    <t>"Goodbye."
 "It's the end."
 "Welcome to my world."
 "May you be swallowed by the darkness."</t>
@@ -2673,10 +2681,10 @@
 「 闇に呑まれるがいい」 </t>
   </si>
   <si>
-    <t xml:space="preserve">adv_mesherada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Where art thee, mine beloved Hathaway?"
+    <t>adv_mesherada</t>
+  </si>
+  <si>
+    <t>"Where art thee, mine beloved Hathaway?"
 "Thou who pledged to protect only minese."
 "lf, e'en if it meant the betrayal of all others &amp;and their eternal enmity."
 "Thou dare maketh a frail lady who can &amp;barely lift more than a spoon wait so long?"
@@ -2684,7 +2692,7 @@
 "how miserable thy current state!"</t>
   </si>
   <si>
-    <t xml:space="preserve">「どこにいるの、私の愛しいハサウェイ？」
+    <t>「どこにいるの、私の愛しいハサウェイ？」
 「ただ私だけを守ると誓ったのに…」
 「他の全てを裏切り、&amp;永遠の敵意を買ってでも」
 「スプーンを持ち上げるのもやっとの&amp;私のような弱い女性を…」
@@ -2693,83 +2701,83 @@
 「今のあなたはどんなに惨めなのでしょう！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"How impertinent!"
+    <t>"How impertinent!"
 "Getting in the way of mine search."</t>
   </si>
   <si>
-    <t xml:space="preserve">「なんて無礼なの！」
+    <t>「なんて無礼なの！」
 「私の探し物の邪魔をするなんて！」</t>
   </si>
   <si>
-    <t xml:space="preserve">"I shall continue my search for thee &amp;in mine next life..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「生まれ変わってもあなたを探し続けるわ…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"I'm sorry..."
+    <t>"I shall continue my search for thee &amp;in mine next life..."</t>
+  </si>
+  <si>
+    <t>「生まれ変わってもあなたを探し続けるわ…」</t>
+  </si>
+  <si>
+    <t>"I'm sorry..."
 "These shackles that were once my wish &amp;won't ever release me."</t>
   </si>
   <si>
-    <t xml:space="preserve">「ごめんなさい... 」
+    <t>「ごめんなさい... 」
 「私は鎖に繋がれている」</t>
   </si>
   <si>
-    <t xml:space="preserve">Alpha 11.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 14.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 21.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 12.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 15.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beta 22.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alpha 20.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*땡땡*</t>
+    <t>Alpha 11.1</t>
+  </si>
+  <si>
+    <t>Alpha 20.52</t>
+  </si>
+  <si>
+    <t>Alpha 20.64</t>
+  </si>
+  <si>
+    <t>Beta 22.86</t>
+  </si>
+  <si>
+    <t>Beta 22.23</t>
+  </si>
+  <si>
+    <t>Alpha 20.49</t>
+  </si>
+  <si>
+    <t>Alpha 20.40</t>
+  </si>
+  <si>
+    <t>Alpha 20.45</t>
+  </si>
+  <si>
+    <t>Alpha 20.67</t>
+  </si>
+  <si>
+    <t>Alpha 20.66</t>
+  </si>
+  <si>
+    <t>Alpha 20.69</t>
+  </si>
+  <si>
+    <t>Alpha 14.1</t>
+  </si>
+  <si>
+    <t>Alpha 21.0</t>
+  </si>
+  <si>
+    <t>Alpha 20.7</t>
+  </si>
+  <si>
+    <t>Alpha 12.1</t>
+  </si>
+  <si>
+    <t>Alpha 15.1</t>
+  </si>
+  <si>
+    <t>Beta 22.90</t>
+  </si>
+  <si>
+    <t>Alpha 20.27</t>
+  </si>
+  <si>
+    <t>*땡땡*</t>
   </si>
   <si>
     <t xml:space="preserve"> *파닥파닥*
@@ -2782,32 +2790,32 @@
  *펄럭펄럭*</t>
   </si>
   <si>
-    <t xml:space="preserve">「나나나나ー♪」
+    <t>「나나나나ー♪」
 「치키치키♪」
 「도나도나도나～♪」
 *지잉*
 *도로롱*</t>
   </si>
   <si>
-    <t xml:space="preserve">칵테일을 쉐이크하는 소리가 들린다.
+    <t>칵테일을 쉐이크하는 소리가 들린다.
 「한잔 어때？」
 「빈티지 크림 에일이 있어{요}」
 술집은 많은 사람들로 붐비고 있다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「선생님!」
+    <t>「선생님!」
 「자비를…」
 「한 푼만{줍쇼}」</t>
   </si>
   <si>
-    <t xml:space="preserve">「어머나」
+    <t>「어머나」
 「아라，좋은 #gender」
 「우후훗」
 「같이 놀지 않을래?」
 「꿈 속에 있는 것처럼 해줄게」</t>
   </si>
   <si>
-    <t xml:space="preserve">「미야옹」
+    <t>「미야옹」
 「냐」
 「냥」
 「야옹」
@@ -2815,43 +2823,43 @@
 *골골골골*</t>
   </si>
   <si>
-    <t xml:space="preserve">「집 어딘지 알아？」
+    <t>「집 어딘지 알아？」
 「집에 갈래」
 「집에 갈래!」
 「엄마 어디? 집 어디?」
 「야옹」</t>
   </si>
   <si>
-    <t xml:space="preserve">「크…」
+    <t>「크…」
 「뽀…」
 「큐～」
 「큐~뽀～」</t>
   </si>
   <si>
-    <t xml:space="preserve">「야옹」
+    <t>「야옹」
 「냥냥」
 「먀」
 *골골골골*</t>
   </si>
   <si>
-    <t xml:space="preserve">주변은 신성한 분위기가 감돈다.
+    <t>주변은 신성한 분위기가 감돈다.
 당신은 누군가의 온화한 시선을 느꼈다.
 매우 조용하고 평화로운 곳이다.
 마음 속에서 기묘한 기도 소리가 메아리쳤다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「후————！」
+    <t>「후————！」
 「후———」
 「후우————！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「도련님은 좀 더 자각심을 가졌으면 좋겠다」
+    <t>「도련님은 좀 더 자각심을 가졌으면 좋겠다」
 「군인으로써, 언제나 몸가짐을 조심해야하는 법」
 「오오, 스타샤님…」
 「이 얼마나 아름다운가!」</t>
   </si>
   <si>
-    <t xml:space="preserve">*깡깡*
+    <t>*깡깡*
 *깡-*
 *띵*
 철을 두들기는 소리가 들린다.
@@ -2860,7 +2868,7 @@
 「보물을 썩히고만 있는 것 아닌가」</t>
   </si>
   <si>
-    <t xml:space="preserve">「오늘도 약자를 돕고! 나쁜놈을 처부수자!」
+    <t>「오늘도 약자를 돕고! 나쁜놈을 처부수자!」
 「경례!」
 「코넬리놈, 불평 뿐이구만…」
 「저놈은 언젠가 머리가 벗겨질거야」
@@ -2868,17 +2876,17 @@
 「흐하하！」</t>
   </si>
   <si>
-    <t xml:space="preserve">*타닥타닥*
+    <t>*타닥타닥*
 *타가닥 타가닥*
 *터거덕 터거덕*</t>
   </si>
   <si>
-    <t xml:space="preserve">「#bigdaddy, 움직여줘…제발!」
+    <t>「#bigdaddy, 움직여줘…제발!」
 「오지말아줘! 만지면 안돼!」
 「천사...천사와 만날 때까지, 아직 죽고싶지않아요…」</t>
   </si>
   <si>
-    <t xml:space="preserve">「봐요... 천사가 있어요」
+    <t>「봐요... 천사가 있어요」
 「#bigdaddy은(는) 숨바꼭질을 잘하네」
 「으흐흐…주사 시간이야」
 「오늘은 뭐하고 놀래?」
@@ -2890,47 +2898,47 @@
 리틀 시스터는 눈이 마주치면 그늘에 숨었다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「저 애들은 기분 나빠」
+    <t>「저 애들은 기분 나빠」
 「빨리 집에 가고 싶어」
 「파파 아직이야~?」
 「여기 너무 싫어」
 어린 여자아이의 혼잣말이 들린다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「어디보자」
+    <t>「어디보자」
 「저 지도는 어디에 놓았을까...」
 「또 거미가 집을 만들고 있어」
 「발 밑을 조심하면서 걸어 줘」</t>
   </si>
   <si>
-    <t xml:space="preserve">주위는 축제에 온 사람들로 붐비고 있다.
+    <t>주위는 축제에 온 사람들로 붐비고 있다.
 즐거운 듯한 웃음소리가 들린다.
 누군가가 #festival 노래를 흥얼거렸다.
 ~와글와글~
 ~왁자지껄~</t>
   </si>
   <si>
-    <t xml:space="preserve">「오늘 밥은 뭘로할까」
+    <t>「오늘 밥은 뭘로할까」
 「가로크의 작품에는 재밌는 점이 없네」
 「한가하네」
 「오오, 손님일까?」
 「고양이 이즈 프리~더~엄♪ 고양이 이즈 프리~더~엄♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「음」
+    <t>「음」
 「천민놈이」
 「옷이 더러워진다」
 「오늘 밤 공연은 뭘까」
 「우아하게 지내고 싶어」</t>
   </si>
   <si>
-    <t xml:space="preserve">누군가가 기도 드리는 소리가 들린다.
+    <t>누군가가 기도 드리는 소리가 들린다.
 「아아, 이 방황하는 새끼 고양이에게 인도하는 빛을…」
 「기도하세요. 아무리 힘든 순간에도 구원이 있습니다」
 「다른 사람을 미워하지 마세요」</t>
   </si>
   <si>
-    <t xml:space="preserve">「#onii」
+    <t>「#onii」
 「#onii」
 「#onii」
 「#onii」
@@ -2942,23 +2950,23 @@
 「너무 좋아해, #brother2♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">장엄한 느낌이 감돌고 있다.
+    <t>장엄한 느낌이 감돌고 있다.
 주위는 엄중하게 경비되고 있다.
 궁궐에서 화려한 음악이 울려퍼지는 것이 들린다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「옳은 일을 하는 것이&amp;어떨 때엔 힘들기도 해요」
+    <t>「옳은 일을 하는 것이&amp;어떨 때엔 힘들기도 해요」
 「누가 우리 아이들을 상처입혔을까 너무하네」</t>
   </si>
   <si>
-    <t xml:space="preserve">「노점에서 맛있는걸 팔까?」
+    <t>「노점에서 맛있는걸 팔까?」
 「오늘은 즐거울거야!」
 「정말 소란스럽네」
 「굉장해!」
 「사람들이 쓰레기같다」</t>
   </si>
   <si>
-    <t xml:space="preserve">「좋은 온천이야」
+    <t>「좋은 온천이야」
 「다음은 어느 온천으로 할까나」
 「온천에서 나오니까 배고 고파졌어」 
 「 몸이 뜨끈뜨끈해졌어.」
@@ -2966,7 +2974,7 @@
 온천 냄새가 난다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「아~좋아요~」
+    <t>「아~좋아요~」
 「랄랄라~」
 「랄라~」
 「우후훗」
@@ -2975,7 +2983,7 @@
 온천 냄새가 난다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「육지는 오래간만이군」
+    <t>「육지는 오래간만이군」
 「바닷바람 냄새가 나는데!」
 「아호이!」
 「아호~이!」
@@ -2985,13 +2993,13 @@
 당신은 선원의 쾌활한 노래에 귀를 기울였다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「흠흠」
+    <t>「흠흠」
 「이건 무슨 의미일까?」
 「책은 지식의 보고{다}」
 「유레카!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「어머나」
+    <t>「어머나」
 「미끌미끌해졌네」
 「곤란한 달팽이구나」
 「답없는 달팽이네」
@@ -3004,7 +3012,7 @@
 「나쁜 달팽이네」</t>
   </si>
   <si>
-    <t xml:space="preserve">*소근소근*
+    <t>*소근소근*
 「좋은 이야기를 입수했는데」
 「호우!」
 「하하」</t>
@@ -3017,7 +3025,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">누군가가 무기를 손질하는 소리가 들린다
+    <t>누군가가 무기를 손질하는 소리가 들린다
 「윌로우 키친의 파이는 일품이다!」
 「미실리아는 이제부터 어떻게 될까?」
 「오래된 숲에는 접근하지 말아라」
@@ -3032,14 +3040,14 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">「음 아니 땐 굴뚝에 연기가 나지 않는 법이지…」
+    <t>「음 아니 땐 굴뚝에 연기가 나지 않는 법이지…」
 「그럼, 다음 미지를 찾으러 가볼까…」
 「여동생 고양이가 있다면, 여동생 강아지도 있을텐데…」
 누군가가 책장을 넘기는 소리가 들렸다.
 누군가가 필기하는 소리가 들렸다.</t>
   </si>
   <si>
-    <t xml:space="preserve">신비한 고대의 언어로 누군가가 투덜거렸다.
+    <t>신비한 고대의 언어로 누군가가 투덜거렸다.
 어디선가 리라의 아름다운 음색이 들린다.
 「프리아우네…」
 「나는 바위 요새에 홀로 남겨져 버렸다」
@@ -3047,114 +3055,114 @@
 당신은 묘한 설렘을 느꼈다.</t>
   </si>
   <si>
-    <t xml:space="preserve">누군가가 작은 목소리로 혼잣말을 내뱉었다
+    <t>누군가가 작은 목소리로 혼잣말을 내뱉었다
 「내가 용서하는 일은 없을 것이야…」
 「모든 것은 미실리아를 위해서」
 「왜 빈데일은 응해주지 않지?」</t>
   </si>
   <si>
-    <t xml:space="preserve">걱정없는 웃음 소리가 들린다.
+    <t>걱정없는 웃음 소리가 들린다.
 당신은 기묘한 시선을 느꼈다.
 「어어, 손님인가?」
 「어린이들은 미실리아의 작은 희망이야」</t>
   </si>
   <si>
-    <t xml:space="preserve">주변에는 긴장감이 감돌고 있다.
+    <t>주변에는 긴장감이 감돌고 있다.
 누군가가 커다란 목소리로 꾸짖었다.
 「저 녀석에게 팔미아의 왕좌를 맞길 수 있을까?」
 「의회에는 능구렁이 같은 놈들만 바글거린다.」</t>
   </si>
   <si>
-    <t xml:space="preserve">「꼬꼬꼬…」
+    <t>「꼬꼬꼬…」
 「꼬…」
 「꼬끼오」
 「꼬꼬꼭」</t>
   </si>
   <si>
-    <t xml:space="preserve">「메에에」
+    <t>「메에에」
 「메에~」
 「메에-에에」
 「메~♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「멍」
+    <t>「멍」
 「멍멍!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「뀨~」
+    <t>「뀨~」
 「망망」
 「끼잉!」</t>
   </si>
   <si>
-    <t xml:space="preserve">*미끌미끌...*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「꿀」
+    <t>*미끌미끌...*</t>
+  </si>
+  <si>
+    <t>「꿀」
 「꿀꿀」</t>
   </si>
   <si>
-    <t xml:space="preserve">「찍-」
+    <t>「찍-」
 「찍찍」
 「찍」</t>
   </si>
   <si>
-    <t xml:space="preserve">유쾌한 음악이 들린다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「음머」
+    <t>유쾌한 음악이 들린다.</t>
+  </si>
+  <si>
+    <t>「음머」
 「음머-」
 「음메」</t>
   </si>
   <si>
-    <t xml:space="preserve">「용무는 없으신가요♪」
+    <t>「용무는 없으신가요♪」
 메이드의 뜨거운 시선을 느낀다…
 「아아，너무 바빠요!」
 「{좋아}」
 「#title님♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 글은 무슨 의미일까…」
+    <t>「이 글은 무슨 의미일까…」
 누군가가 책을 정리하는 소리가 들린다.
 「언니도 참, 또 어질러놓고는!」
 「흥흥~♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「오오, 하얀 과부 에린,&amp;찬만월에 비치는 나른한 모습이여」
+    <t>「오오, 하얀 과부 에린,&amp;찬만월에 비치는 나른한 모습이여」
 「무엇을 보고 있는가?」
 「오오, 자애의 여신 오디나여,&amp;그대의 희생에 내 노래를 올리겠소」
 「구름없는 하늘에 가로놓인 빛,&amp;영원한 어둠을 털어내는 붉은 머리카락의 공자여!」
 당신은 등 뒤에서 차가운 시선을 느꼈다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「멈춰라…신분을 조회하겠다」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「멈춰주십시오. 신분 조회가 필요합니다…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*쿨쿨*
+    <t>「멈춰라…신분을 조회하겠다」</t>
+  </si>
+  <si>
+    <t>「멈춰주십시오. 신분 조회가 필요합니다…」</t>
+  </si>
+  <si>
+    <t>*쿨쿨*
 *음냐음냐*
 「…으앗!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「흥, 바보같은 놈들」
+    <t>「흥, 바보같은 놈들」
 「그 굼벵이같은 놈은 어디로 갔지?」
 「떠나지 말라고 그렇게 말했는데!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「흥을 깨지는 말어」
+    <t>「흥을 깨지는 말어」
 「오오, 좋은 구절을 생각해냈다!」
 「뭐, 짜증나는 대머리 친부놈이」
 「어이어이, 부인께서는 어디로 갔냐 」</t>
   </si>
   <si>
-    <t xml:space="preserve">*쿠웅*
+    <t>*쿠웅*
 리틀 시스터「봐요, #bigdaddy 천사가 있어요」
 리틀 시스터「빨리요 #bigdaddy, 하늘에서 천사가 춤추고 있어요!」
  *쿵*</t>
   </si>
   <si>
-    <t xml:space="preserve">「아직 멀었어!」
+    <t>「아직 멀었어!」
 「평상심을 갖어」
 「진짜 활은 거짓말을 못하지」
 「부인님들, 위험하니까 물러나십시오!」
@@ -3162,31 +3170,31 @@
 「활로 두들겨 팰려는 생각은 하지 마라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「나 참 요즘 젊은 것들은...」
+    <t>「나 참 요즘 젊은 것들은...」
 「정신이 썩어 빠졌어!」
 「얼빠진 놈들!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「옛 존재들은 재앙을 가저온다」
+    <t>「옛 존재들은 재앙을 가저온다」
 「크크크…」
 「신화는, 시간의 사막에서 진실을 잃어버릴 것이다」
 「신들은 오만하다」
 「그 때, 우리는...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「개척은 예술이다」
+    <t>「개척은 예술이다」
 「계획은 충분히 다듬어야 해」
 「장래가 기대되는구나!」
 「가끔씩은 휴식도 좋지」
 「오르비나 와인에게 비할만한 와인은 없지」</t>
   </si>
   <si>
-    <t xml:space="preserve">누군가가 지긋이 처다보는 듯한 기분이 들었다.
+    <t>누군가가 지긋이 처다보는 듯한 기분이 들었다.
 작은 목소리로 누군각가 주문을 읊조렸다.
 희미한 콧노래가 들린듯했다.</t>
   </si>
   <si>
-    <t xml:space="preserve">바람이 장난스럽게 당신을 쿡 찌른 듯하다.
+    <t>바람이 장난스럽게 당신을 쿡 찌른 듯하다.
 누군가의 따뜻한 시선을 느꼈다.
 「바람의 선율에 귀를 기울여요」
 「이 작은 약병에&amp;세계의 한 조각을 가둬봐요」
@@ -3199,15 +3207,15 @@
 「물 소리는 최고로 오래된 이야기거리야」</t>
   </si>
   <si>
-    <t xml:space="preserve">누군가에게 보호받는 듯한 기분이 들었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「언젠가 나를 만든 사람을 찾아내서 때려줄거야」
+    <t>누군가에게 보호받는 듯한 기분이 들었다.</t>
+  </si>
+  <si>
+    <t>「언젠가 나를 만든 사람을 찾아내서 때려줄거야」
 「인형 애호가들을 혼내줘야돼
 「...나는 스크랩이 아닙니다.」</t>
   </si>
   <si>
-    <t xml:space="preserve">「송사리」 
+    <t>「송사리」 
 「피래미?」
 「송사리~ 피래미♪」
 「사리사리 송사리♥」 
@@ -3215,14 +3223,14 @@
 가키는 피식 웃었다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「그림자는, 나의 거울」
+    <t>「그림자는, 나의 거울」
 「어둠은 두렵지 않아. 너는 어떨까나?」
 「 이 날개, 만져볼래?」
 「 어딘가 먼 곳에 가고싶어졌어」
 「 이 세계는 기묘하네」</t>
   </si>
   <si>
-    <t xml:space="preserve">「어디있니, 내 사랑스런 해서웨이?」
+    <t>「어디있니, 내 사랑스런 해서웨이?」
 「오직 나를 지키겠다고 맹세했는데…」
 「다른 모두를 배신해,&amp;영원한 적의를 사더라도」
 「스푼만 겨우 드는&amp; 나같이 연약한 여자를...」
@@ -3231,77 +3239,77 @@
 「오늘 당신은 얼마나 비참할지!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「어서오세요!」
+    <t>「어서오세요!」
 「천천히 봐주세요」
 #self은(는) 당신에게 가볍게 고개를 끄덕였다.
 #self은(는) 당신에게 손을 흔들었다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「와서 한번 보고 가 거기 #brother」
+    <t>「와서 한번 보고 가 거기 #brother」
 「#festival 한정{이라고}!」
 「#brother, 즐기고 있지?」</t>
   </si>
   <si>
-    <t xml:space="preserve">「괜찮은 책이 있어」
+    <t>「괜찮은 책이 있어」
 「새로운 지식이 필요해?」
 「신작이 입고됐어{요}」</t>
   </si>
   <si>
-    <t xml:space="preserve">「치유사의 손길이 필요해?」
+    <t>「치유사의 손길이 필요해?」
 「몸은 괜챃아?」
 「이야, 또 모험가인가?」</t>
   </si>
   <si>
-    <t xml:space="preserve">「솔깃한 정보가 있어!」
+    <t>「솔깃한 정보가 있어!」
 「이야기를 하나 사지않을래?」
 「선생님, 좋은 이야기가 있어요」</t>
   </si>
   <si>
-    <t xml:space="preserve">「히히히, 선생님도 나쁜 사람이구만」
+    <t>「히히히, 선생님도 나쁜 사람이구만」
 「헤헤헤...」
 「이 쪽이다」</t>
   </si>
   <si>
-    <t xml:space="preserve">「용건은 뭔가?」
+    <t>「용건은 뭔가?」
 「간단하게 해주시오」
 「아아, 모험가가 무슨 일인가?」</t>
   </si>
   <si>
-    <t xml:space="preserve">「뭐든지 감정합니다」
+    <t>「뭐든지 감정합니다」
 「감정이 필요한가요?」
 「마도구는 이쪽에 맡겨줘」</t>
   </si>
   <si>
-    <t xml:space="preserve">「어서오세요」
+    <t>「어서오세요」
 「많은 돈을 가지고 다니면 불안하지 않습니까?」
 「돈이 전부죠!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 앞은 마술사 길드의 관할권 안이다.」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이 앞은 전사 길드의 관할권 안이다.」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이 앞은 도적 길드의 관할권 안이다.」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「한 곡 듣고 갈래?」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「감성도 없는 모질이 놈!」
+    <t>「이 앞은 마술사 길드의 관할권 안이다.」</t>
+  </si>
+  <si>
+    <t>「이 앞은 전사 길드의 관할권 안이다.」</t>
+  </si>
+  <si>
+    <t>「이 앞은 도적 길드의 관할권 안이다.」</t>
+  </si>
+  <si>
+    <t>「한 곡 듣고 갈래?」</t>
+  </si>
+  <si>
+    <t>「감성도 없는 모질이 놈!」
 「저속한 녀석」</t>
   </si>
   <si>
-    <t xml:space="preserve">「머,멈춰주세요」
+    <t>「머,멈춰주세요」
 「그렇게 끔직한 연주였어?」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 술주정뱅이가!」
+    <t>「이 술주정뱅이가!」
 「나쁜 술주정은 안되지」</t>
   </si>
   <si>
-    <t xml:space="preserve">「안,안됩니다 선생님」
+    <t>「안,안됩니다 선생님」
 「히익」
 「저를 죽여도 얻는 것이라고는 먼지 뿐이에요」
 「바보 취급 하지마!」
@@ -3310,27 +3318,27 @@
 「자.. 잠깐!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「싸움인가」
+    <t>「싸움인가」
 「전부 벗겨먹어주지」</t>
   </si>
   <si>
-    <t xml:space="preserve">「니양!」
+    <t>「니양!」
 「냐옹!」
 「야옹!」
 「먀옹!」
 「냣!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「죽겠구만」
+    <t>「죽겠구만」
 「죽어라!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「야옹!」
+    <t>「야옹!」
 「우먀먓!」
 「미양!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「도와주세요-」
+    <t>「도와주세요-」
 「그,그만두세요」
 「악의 하수인이다!」
 「변태!」
@@ -3339,15 +3347,15 @@
 「어른들은 다 이렇다니까」</t>
   </si>
   <si>
-    <t xml:space="preserve">「뭐하는 거에요!」
+    <t>「뭐하는 거에요!」
 「야만인!」
 「왜 나야」</t>
   </si>
   <si>
-    <t xml:space="preserve">「네 녀석, 군사 재판에 넘겨주마 」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「그만 두게」
+    <t>「네 녀석, 군사 재판에 넘겨주마 」</t>
+  </si>
+  <si>
+    <t>「그만 두게」
 「무법자놈」
 「비열하다」
 「망할 녀석!」
@@ -3356,199 +3364,191 @@
 「돈 같은건 없어」</t>
   </si>
   <si>
-    <t xml:space="preserve">「뭐하는거야-」
+    <t>「뭐하는거야-」
 「그만둬라-」</t>
   </si>
   <si>
-    <t xml:space="preserve">「덤벼라!」
+    <t>「덤벼라!」
 「흐핫!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「수배자{다}!」
+    <t>「수배자{다}!」
 「범죄자놈, 얌전히 있어라」
 「어슬렁어슬렁 돌아다니다니! 」
 「죗값을 달게 받아라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「민달팽이다!」
+    <t>「민달팽이다!」
 「내게 맞서다니 좋은 배짱이다!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「시,싫어 오지말아요! 안돼...도와주세요...제발...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「변태!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「뭐하는거냐!」
+    <t>「시,싫어 오지말아요! 안돼...도와주세요...제발...」</t>
+  </si>
+  <si>
+    <t>「변태!」</t>
+  </si>
+  <si>
+    <t>「뭐하는거냐!」
 「이 새끼!」
 「이제와서 빌어봤자 늦었다」</t>
   </si>
   <si>
-    <t xml:space="preserve">「경비병! 경비병!」
+    <t>「경비병! 경비병!」
 「습격!」
 「강도놈!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「무례한 놈!」
+    <t>「무례한 놈!」
 「경비병, 냉큼 이 바보를 붙잡아라」
 「경비병! 빨리 와라!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「속죄하세요」
+    <t>「속죄하세요」
 「당신에게는 벌이 필요하겠네요」
 「이 녀석ー♪」
 「이놈잇!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「개새끼」
-「컴 온 베이베」
-「이얏!」
-「토하지 마라!」
-「자, 벌받을 시간이다」
-「와라!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「돈인가? 돈이 필요한건가?」
+    <t>「돈인가? 돈이 필요한건가?」
 「더러운 손으로 만지지 말게」
 「구경만 하지말고 도와주지 않겠는가」
 「돈의 망자놈!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「#brother2 물러나!」
+    <t>「#brother2 물러나!」
 「#brother2 만지지 마!」
 「#brother2 지켜 봐줘♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「멈추세요！」
+    <t>「멈추세요！」
 「여러분, 이 괴한을 어떻게든 하세요」</t>
   </si>
   <si>
-    <t xml:space="preserve">「왜 그런 짓을 하는 거야?」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「관광객이라고 바보 취급 하지마라」
+    <t>「왜 그런 짓을 하는 거야?」</t>
+  </si>
+  <si>
+    <t>「관광객이라고 바보 취급 하지마라」
 「치안이 나쁜 나라구만」
 「야만의 땅이구만」
 「돈같은건 갖고있지 않다고」</t>
   </si>
   <si>
-    <t xml:space="preserve">「안돼요!」
+    <t>「안돼요!」
 「그만 두세요!」
 「뜨거운 물을 부어버릴 거에요?」</t>
   </si>
   <si>
-    <t xml:space="preserve">「아아, 미친 사람이다!」
+    <t>「아아, 미친 사람이다!」
 「근위병, 뭐하고있는거냐. 놈을 잡아라!」
 「눈알이 돌아버렸구나!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이교도놈!」
+    <t>「이교도놈!」
 「모독이다!」
 「이 얼마나 두려운 짓을!」
 「죽여라! 죽여!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「나 원참」
+    <t>「나 원참」
 「죽고 싶은가보지?」
 「곤란하네」</t>
   </si>
   <si>
-    <t xml:space="preserve">「예의범절이 필요하겠네요」
+    <t>「예의범절이 필요하겠네요」
 「어리석어요」
 「그만두세요!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「그게 당신의 철학인가」 
+    <t>「그게 당신의 철학인가」 
 「당신의 이야기를 보여다오」
 「이 세계는 뒤숭숭하구나」 
 「이얏, 책을 상하게하면 안되지」</t>
   </si>
   <si>
-    <t xml:space="preserve">「꼬꼬댁!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「메에-!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「크르릉！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「끄응！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「장난이 지나쳐요!」
+    <t>「꼬꼬댁!」</t>
+  </si>
+  <si>
+    <t>「메에-!」</t>
+  </si>
+  <si>
+    <t>「크르릉！」</t>
+  </si>
+  <si>
+    <t>「끄응！」</t>
+  </si>
+  <si>
+    <t>「장난이 지나쳐요!」
 「벌을 받아야겠어요」</t>
   </si>
   <si>
-    <t xml:space="preserve">「그만둬주세요!」
+    <t>「그만둬주세요!」
 「당신은, 그런 사람이였나 보군요」</t>
   </si>
   <si>
-    <t xml:space="preserve">리틀 시스터「죽여! 죽여요!」
+    <t>리틀 시스터「죽여! 죽여요!」
 리틀 시스터「박살나 주세요!」
 리틀 시스터「#bigdaddy, 가라!!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「크크…」
+    <t>「크크…」
 「파멸을 원하는가」
 「내게 칼날을 돌리다니」
 「그대의 힘, 한번 보여다오」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이게 무슨 일인가!」
+    <t>「이게 무슨 일인가!」
 「무슨 짓인가!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「바보」
+    <t>「바보」
 「그만둬」
 「죽고싶어？」
 「…」</t>
   </si>
   <si>
-    <t xml:space="preserve">「싸움은 좋아하지 않지만…」
+    <t>「싸움은 좋아하지 않지만…」
 「어쩔수 없네」
 「그걸 원한다면야」</t>
   </si>
   <si>
-    <t xml:space="preserve">「송사리!!」 
+    <t>「송사리!!」 
 「송-송-송-송사리♪」
 「피래미! 피래미!」
 「송사래미♥」
 「송~사리~」</t>
   </si>
   <si>
-    <t xml:space="preserve">「그림자여, 자 같이 춤춰보자」
+    <t>「그림자여, 자 같이 춤춰보자」
 「눈깜빡한 사이에 끝내주겠어」
 「슬프구나」
 「그림자여, 모여라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 얼마나 무례한가!」
+    <t>「이 얼마나 무례한가!」
 「내 보물 찾기를 방해하다니!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이것이야말로 예술!」
+    <t>「이것이야말로 예술!」
 「싸움이랑은 관련 없는 세계에 살고 있었는데」
 「아트다!」</t>
   </si>
   <si>
-    <t xml:space="preserve">*때앵…*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「꺄아!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이런 바보같은…」
+    <t>*때앵…*</t>
+  </si>
+  <si>
+    <t>「꺄아!」</t>
+  </si>
+  <si>
+    <t>「이런 바보같은…」
 「엄격한 손님이네」
 「잘못해서 미안하구만」</t>
   </si>
   <si>
-    <t xml:space="preserve">「주정뱅이에게...」
+    <t>「주정뱅이에게...」
 「말도 안되는 운명이다」</t>
   </si>
   <si>
-    <t xml:space="preserve">「살생을!」
+    <t>「살생을!」
 「크악」
 「왜 이런 짓을…」
 「너무해」
@@ -3556,24 +3556,24 @@
 「내 인생은 대체 왜」</t>
   </si>
   <si>
-    <t xml:space="preserve">「네 녀석-」
+    <t>「네 녀석-」
 「이대로 끝날 순 없는데」</t>
   </si>
   <si>
-    <t xml:space="preserve">「야...옹…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「집에…돌아…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「꾸빠！」
+    <t>「야...옹…」</t>
+  </si>
+  <si>
+    <t>「집에…돌아…」</t>
+  </si>
+  <si>
+    <t>「꾸빠！」
 「꾸빠！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「야…야옹…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「엄...마…」
+    <t>「야…야옹…」</t>
+  </si>
+  <si>
+    <t>「엄...마…」
 「우-엥」
 「지옥에나 떨어져라!」
 「와아앙」
@@ -3582,33 +3582,15 @@
 「불효자는 갑니다...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「흐————！」
+    <t>「흐————！」
 「흐———」
 「흐우————！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「나는 선량한 시민이였는데」
-「개새끼」
-「졌다」
-「안돼...」
-「거짓말이지」
-「왜, 대체 왜-」
-「이게 무슨 농담이람」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「나는 선량한 버니였는데」
-「개새끼」
-「졌다」
-「안돼...」
-「거짓말이지」
-「왜, 대체 왜-」
-「이게 무슨 농담이람」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「머리에 피도 안마른 놈이-!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「신들께서 보고 계신다!」
+    <t>「머리에 피도 안마른 놈이-!」</t>
+  </si>
+  <si>
+    <t>「신들께서 보고 계신다!」
 「내 노후가...」
 「악마놈!」
 「그흑...」
@@ -3616,32 +3598,32 @@
 「나는 이렇게 죽는구나」</t>
   </si>
   <si>
-    <t xml:space="preserve">「나…나는...!」
+    <t>「나…나는...!」
 「시골 촌놈이라고 이런...!」
 「음식을 함부러 하지 마!」
 「하극...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「후하-…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「히...히잉…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「아아, 내 육편이 도시를 더럽혀버렸구나!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「주...죽고싶지 않아... 싫어...어..」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「아...빠...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이런 곳에서...!」
+    <t>「후하-…」</t>
+  </si>
+  <si>
+    <t>「히...히잉…」</t>
+  </si>
+  <si>
+    <t>「아아, 내 육편이 도시를 더럽혀버렸구나!」</t>
+  </si>
+  <si>
+    <t>「주...죽고싶지 않아... 싫어...어..」</t>
+  </si>
+  <si>
+    <t>「아...빠...」</t>
+  </si>
+  <si>
+    <t>「이런 곳에서...!」
 「흑...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「네 놈... 기억해라」
+    <t>「네 놈... 기억해라」
 「으아악」
 「사람을 죽이다니!」
 「그만둬라-」
@@ -3650,19 +3632,19 @@
 「목숨만은 살려줘-」</t>
   </si>
   <si>
-    <t xml:space="preserve">「목숨만 살려주세요」
+    <t>「목숨만 살려주세요」
 「아아…」</t>
   </si>
   <si>
-    <t xml:space="preserve">「아빠한테 이를거야」
+    <t>「아빠한테 이를거야」
 「이 무슨... 이 무슨...!」
 「아,안돼...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「아아, 신이시여-」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「도망쳐어어」
+    <t>「아아, 신이시여-」</t>
+  </si>
+  <si>
+    <t>「도망쳐어어」
 「너 없에버리겠어」
 「씨발새끼-」
 「그만둬-」
@@ -3670,330 +3652,358 @@
 「내가 지다니...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「네놈에게는 한푼도 못 줘…」
+    <t>「네놈에게는 한푼도 못 줘…」
 「이 무슨...」
 「하층민놈」
 「아직 죽고싶지않아-... 그윽」
 「유언장써서 다행이다」</t>
   </si>
   <si>
-    <t xml:space="preserve">「꺄악—」
+    <t>「꺄악—」
 「안돼!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「안돼!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「#brother2, 나는 못죽이겠어!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「원통하구나…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「당신에게는 마음이 없는 겁니까?」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이런 나라 다시 방문할까보냐」
+    <t>「안돼!」</t>
+  </si>
+  <si>
+    <t>「#brother2, 나는 못죽이겠어!</t>
+  </si>
+  <si>
+    <t>「원통하구나…」</t>
+  </si>
+  <si>
+    <t>「당신에게는 마음이 없는 겁니까?」</t>
+  </si>
+  <si>
+    <t>「이런 나라 다시 방문할까보냐」
 「무차별 테러다-」
 「싫어잉」</t>
   </si>
   <si>
-    <t xml:space="preserve">「아앙♪」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「쓸모없는 병사놈들」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「신이시여...!」
+    <t>「아앙♪」</t>
+  </si>
+  <si>
+    <t>「쓸모없는 병사놈들」</t>
+  </si>
+  <si>
+    <t>「신이시여...!」
 「지금 가겠습니다, 신이시여!」
 「네놈에게 신의 저주가 있길」</t>
   </si>
   <si>
-    <t xml:space="preserve">「피아...미안해...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「에이슈...!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「어쩔수없지... 다음에는 사후 세계를 탐구해볼까...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「끼잉…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「끙…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*쁘츗*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「찍-!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「처음부터 다시 할게요」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「안돼！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「너무해…」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「꺄아-」
+    <t>「피아...미안해...」</t>
+  </si>
+  <si>
+    <t>「에이슈...!」</t>
+  </si>
+  <si>
+    <t>「어쩔수없지... 다음에는 사후 세계를 탐구해볼까...」</t>
+  </si>
+  <si>
+    <t>「끼잉…」</t>
+  </si>
+  <si>
+    <t>「끙…」</t>
+  </si>
+  <si>
+    <t>*쁘츗*</t>
+  </si>
+  <si>
+    <t>「찍-!」</t>
+  </si>
+  <si>
+    <t>「처음부터 다시 할게요」</t>
+  </si>
+  <si>
+    <t>「안돼！」</t>
+  </si>
+  <si>
+    <t>「너무해…」</t>
+  </si>
+  <si>
+    <t>「꺄아-」
 「안돼!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「그아아아아!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「다시는 혼자 두지 마...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「미안, 테레시아...」
+    <t>「그아아아아!」</t>
+  </si>
+  <si>
+    <t>「다시는 혼자 두지 마...」</t>
+  </si>
+  <si>
+    <t>「미안, 테레시아...」
 「어둠으로 돌아갖」
 「크크크...」</t>
   </si>
   <si>
-    <t xml:space="preserve">「두통이...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「꺄아」
+    <t>「두통이...」</t>
+  </si>
+  <si>
+    <t>「꺄아」
 「안돼!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「네게로 갈게」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「주군, 용서해 주십시오...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「저도... 녹슬어 버린 것 같습니다...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「송사……」 
+    <t>「네게로 갈게」</t>
+  </si>
+  <si>
+    <t>「주군, 용서해 주십시오...」</t>
+  </si>
+  <si>
+    <t>「저도... 녹슬어 버린 것 같습니다...」</t>
+  </si>
+  <si>
+    <t>「송사……」 
 「피래에에에에에미!!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이 세계는 너무 눈부시구나」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「다시 태어나도 당신을 찾을거야...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「사람을 때려잡아버렸다!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「지옥에 떨어지세요」
+    <t>「이 세계는 너무 눈부시구나」</t>
+  </si>
+  <si>
+    <t>「다시 태어나도 당신을 찾을거야...」</t>
+  </si>
+  <si>
+    <t>「사람을 때려잡아버렸다!」</t>
+  </si>
+  <si>
+    <t>「지옥에 떨어지세요」
 「꼴 좋네요」</t>
   </si>
   <si>
-    <t xml:space="preserve">「술은 좀 깼나?」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「약해!」
+    <t>「술은 좀 깼나?」</t>
+  </si>
+  <si>
+    <t>「약해!」
 「대체 뭘하고 싶었던 거야?」
 「하하하!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「잘자요」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*쉬익*
+    <t>「잘자요」</t>
+  </si>
+  <si>
+    <t>*쉬익*
 「야옹-!」
 「냥-」
 「우냣!」
 발톱을 가는 소리가 들린다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「아아~ 깜짝 놀랐다아」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">검은 고양이가 꼬리를 흔들었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「이 사람 약-해」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「흐————！」
+    <t>「아아~ 깜짝 놀랐다아」</t>
+  </si>
+  <si>
+    <t>검은 고양이가 꼬리를 흔들었다.</t>
+  </si>
+  <si>
+    <t>「이 사람 약-해」</t>
+  </si>
+  <si>
+    <t>「흐————！」
 「흐———」
 「흐으————！」</t>
   </si>
   <si>
-    <t xml:space="preserve">「시민 파워」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「버니 파워」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「요즘 것들은 말이야...」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「아주 약한 놈이구마」
+    <t>「시민 파워」</t>
+  </si>
+  <si>
+    <t>「버니 파워」</t>
+  </si>
+  <si>
+    <t>「요즘 것들은 말이야...」</t>
+  </si>
+  <si>
+    <t>「아주 약한 놈이구마」
 「요즘 젊은 것은 다 이 꼬라지구마」</t>
   </si>
   <si>
-    <t xml:space="preserve">「약해」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「흐하하하하!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「히힝!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「흐하하하!」
+    <t>「약해」</t>
+  </si>
+  <si>
+    <t>「흐하하하하!」</t>
+  </si>
+  <si>
+    <t>「히힝!」</t>
+  </si>
+  <si>
+    <t>「흐하하하!」
 「하등 생물 녀석」</t>
   </si>
   <si>
-    <t xml:space="preserve">「천사의 피로 배를 채우는거에요」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「비정한 어른이네!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#self은(는) 꼬리를 부풀렸다.
+    <t>「천사의 피로 배를 채우는거에요」</t>
+  </si>
+  <si>
+    <t>「비정한 어른이네!」</t>
+  </si>
+  <si>
+    <t>#self은(는) 꼬리를 부풀렸다.
 #self은(는) 꼬리를 격하게 흔들었다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「네 꼬라지를 봐라」
+    <t>「네 꼬라지를 봐라」
 「강해져서 돌아와라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「저 세상에서 후회해라」
+    <t>「저 세상에서 후회해라」
 「벌레같은 놈」</t>
   </si>
   <si>
-    <t xml:space="preserve">「쓰레기놈」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「지옥으로 떨어지세요♪」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「두번씩이나 바보취급하지마라」
+    <t>「쓰레기놈」</t>
+  </si>
+  <si>
+    <t>「지옥으로 떨어지세요♪」</t>
+  </si>
+  <si>
+    <t>「두번씩이나 바보취급하지마라」
 「갸하하하하!」
 「고 투 헬」</t>
   </si>
   <si>
-    <t xml:space="preserve">「흠」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">소녀는 옷에 묻은 먼지를 털었다.
+    <t>「흠」</t>
+  </si>
+  <si>
+    <t>소녀는 옷에 묻은 먼지를 털었다.
 소녀는 당신을 보고 활짝 웃었다.
 당신은 소녀를 바라보았다.</t>
   </si>
   <si>
-    <t xml:space="preserve">당신은 여동생의 머리를 쓰다듬었다.
+    <t>당신은 여동생의 머리를 쓰다듬었다.
 당신은 여동생의 모습에 눈을 가늘게 떴다.
 여동생은 아래에서 당신의 얼굴을 바라보았다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「자아, 이 꼴보기 싫은 시체를 치워버리는 겁니다」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「약해 약해」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「자업자득이에요」
+    <t>「자아, 이 꼴보기 싫은 시체를 치워버리는 겁니다」</t>
+  </si>
+  <si>
+    <t>「약해 약해」</t>
+  </si>
+  <si>
+    <t>「자업자득이에요」
 「쓰레기 벌레♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">「멍청한 녀석」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「회개하라」
+    <t>「멍청한 녀석」</t>
+  </si>
+  <si>
+    <t>「회개하라」
 「당연한 업이다」
 「이교도에 걸맞는 죽음이구나」</t>
   </si>
   <si>
-    <t xml:space="preserve">「이제 끝난건가?」
+    <t>「이제 끝난건가?」
 「안타깝구나」</t>
   </si>
   <si>
-    <t xml:space="preserve">피아마는 옷에 묻은 먼지를 털었다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「그게 당신의 이야기인가... 쓸쓸한 엔딩이구나」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「멍!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「멍!」
+    <t>피아마는 옷에 묻은 먼지를 털었다.</t>
+  </si>
+  <si>
+    <t>「그게 당신의 이야기인가... 쓸쓸한 엔딩이구나」</t>
+  </si>
+  <si>
+    <t>「멍!」</t>
+  </si>
+  <si>
+    <t>「멍!」
 「낑낑!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「쓸모없는 놈!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">아가씨는 옷에 묻은 먼지를 털었다.
+    <t>「쓸모없는 놈!」</t>
+  </si>
+  <si>
+    <t>아가씨는 옷에 묻은 먼지를 털었다.
 아가씨는 당신을 보고 활짝 웃었다.
 당신은 아가씨를 바라보았다.
 「우후훗♪」</t>
   </si>
   <si>
-    <t xml:space="preserve">리틀 시스터 「천사의 피로 배를 채우는거에요」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「크크크…」
+    <t>리틀 시스터 「천사의 피로 배를 채우는거에요」</t>
+  </si>
+  <si>
+    <t>「크크크…」
 「바보같구나」
 「어둠으로 돌아가거라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「흠」
+    <t>「흠」
 「꼴좋구나!」</t>
   </si>
   <si>
-    <t xml:space="preserve">「죽어라!」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">「안타깝네」
+    <t>「죽어라!」</t>
+  </si>
+  <si>
+    <t>「안타깝네」
 「평안하게 주무시길」
 「더 이상 고통스러워하지 않아도 되」</t>
   </si>
   <si>
-    <t xml:space="preserve">방어자는 옷의 먼지를 털어냈다.
+    <t>방어자는 옷의 먼지를 털어냈다.
 방어자는 당신에게 미소지었다.</t>
   </si>
   <si>
-    <t xml:space="preserve">「송~사~리♪」
+    <t>「송~사~리♪」
 「송사리 송사리♥」
 「피래미피래미피래미피래미피래미피래미」</t>
   </si>
   <si>
-    <t xml:space="preserve">「잘 가길」
+    <t>「잘 가길」
 「끝이야」
 「나의 세계에 어서오길」
 「어둠에 삼켜지거라」</t>
   </si>
   <si>
-    <t xml:space="preserve">「미안해... 」
+    <t>「미안해... 」
 「나는 쇠사슬에 묶여있어」</t>
+  </si>
+  <si>
+    <t>「나는 선량한 시민이였는데」
+「개자식」
+「졌다」
+「안돼...」
+「거짓말이지」
+「왜, 대체 왜-」
+「이게 무슨 농담이람」</t>
+  </si>
+  <si>
+    <t>「나는 선량한 버니였는데」
+「개자식」
+「졌다」
+「안돼...」
+「거짓말이지」
+「왜, 대체 왜-」
+「이게 무슨 농담이람」</t>
+  </si>
+  <si>
+    <t>「개자식」
+「컴 온 베이베」
+「이얏!」
+「토하지 마라!」
+「자, 벌받을 시간이다」
+「와라!」</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="44"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4011,69 +4021,356 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -4082,7 +4379,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -4091,7 +4388,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -4100,7 +4397,7 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
@@ -4109,7 +4406,7 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -4119,17 +4416,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>590</v>
       </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="G3"/>
-      <c r="H3"/>
       <c r="I3" t="s">
         <v>693</v>
       </c>
@@ -4140,7 +4433,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -4149,7 +4442,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -4158,7 +4451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4174,8 +4467,6 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="G4"/>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>608</v>
       </c>
@@ -4186,7 +4477,7 @@
         <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -4194,10 +4485,8 @@
       <c r="N4" t="s">
         <v>29</v>
       </c>
-      <c r="P4"/>
-      <c r="Q4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -4213,16 +4502,8 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -4238,12 +4519,8 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="J6"/>
-      <c r="K6"/>
       <c r="L6" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -4252,7 +4529,7 @@
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -4261,7 +4538,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4277,8 +4554,6 @@
       <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
       <c r="I7" t="s">
         <v>694</v>
       </c>
@@ -4289,7 +4564,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -4297,10 +4572,8 @@
       <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -4316,8 +4589,6 @@
       <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
       <c r="I8" t="s">
         <v>695</v>
       </c>
@@ -4328,7 +4599,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -4337,7 +4608,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -4346,7 +4617,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
@@ -4362,8 +4633,6 @@
       <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
       <c r="I9" t="s">
         <v>696</v>
       </c>
@@ -4374,7 +4643,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -4383,7 +4652,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -4392,7 +4661,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -4408,31 +4677,26 @@
       <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
       <c r="I10" t="s">
         <v>697</v>
       </c>
-      <c r="J10"/>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>747</v>
-      </c>
-      <c r="M10"/>
+        <v>746</v>
+      </c>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>806</v>
-      </c>
-      <c r="P10"/>
+        <v>803</v>
+      </c>
       <c r="Q10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -4448,8 +4712,6 @@
       <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
       <c r="I11" t="s">
         <v>698</v>
       </c>
@@ -4460,7 +4722,7 @@
         <v>75</v>
       </c>
       <c r="L11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="M11" t="s">
         <v>76</v>
@@ -4469,7 +4731,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -4478,7 +4740,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -4494,8 +4756,6 @@
       <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
       <c r="I12" t="s">
         <v>699</v>
       </c>
@@ -4506,7 +4766,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -4515,7 +4775,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -4524,7 +4784,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -4540,17 +4800,14 @@
       <c r="E13" t="s">
         <v>91</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
       <c r="I13" t="s">
         <v>92</v>
       </c>
-      <c r="J13"/>
       <c r="K13" t="s">
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -4558,10 +4815,8 @@
       <c r="N13" t="s">
         <v>94</v>
       </c>
-      <c r="P13"/>
-      <c r="Q13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -4577,8 +4832,6 @@
       <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
       <c r="I14" t="s">
         <v>700</v>
       </c>
@@ -4589,7 +4842,7 @@
         <v>98</v>
       </c>
       <c r="L14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M14" t="s">
         <v>76</v>
@@ -4598,7 +4851,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -4607,7 +4860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4623,10 +4876,6 @@
       <c r="E15" t="s">
         <v>103</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="J15"/>
-      <c r="K15"/>
       <c r="L15" t="s">
         <v>104</v>
       </c>
@@ -4646,17 +4895,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>596</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="G16"/>
-      <c r="H16"/>
       <c r="I16" t="s">
         <v>701</v>
       </c>
@@ -4667,7 +4912,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -4676,7 +4921,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -4685,7 +4930,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -4701,8 +4946,6 @@
       <c r="E17" t="s">
         <v>114</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
       <c r="I17" t="s">
         <v>620</v>
       </c>
@@ -4713,7 +4956,7 @@
         <v>114</v>
       </c>
       <c r="L17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="M17" t="s">
         <v>113</v>
@@ -4722,7 +4965,7 @@
         <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="P17" t="s">
         <v>113</v>
@@ -4731,17 +4974,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
       <c r="B18" t="s">
         <v>590</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="G18"/>
-      <c r="H18"/>
       <c r="I18" t="s">
         <v>702</v>
       </c>
@@ -4751,8 +4990,8 @@
       <c r="K18" t="s">
         <v>117</v>
       </c>
-      <c r="L18" t="s">
-        <v>754</v>
+      <c r="L18" s="6" t="s">
+        <v>849</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -4761,7 +5000,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -4770,17 +5009,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
         <v>596</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="G19"/>
-      <c r="H19"/>
       <c r="I19" t="s">
         <v>702</v>
       </c>
@@ -4790,8 +5025,8 @@
       <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="L19" t="s">
-        <v>755</v>
+      <c r="L19" s="6" t="s">
+        <v>850</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -4800,7 +5035,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -4809,7 +5044,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
@@ -4825,8 +5060,6 @@
       <c r="E20" t="s">
         <v>129</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
       <c r="I20" t="s">
         <v>703</v>
       </c>
@@ -4837,7 +5070,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -4846,7 +5079,7 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="P20" t="s">
         <v>134</v>
@@ -4855,17 +5088,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>590</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="G21"/>
-      <c r="H21"/>
       <c r="I21" t="s">
         <v>704</v>
       </c>
@@ -4876,7 +5105,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -4885,7 +5114,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -4894,17 +5123,13 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>143</v>
       </c>
       <c r="B22" t="s">
         <v>590</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="G22"/>
-      <c r="H22"/>
       <c r="I22" t="s">
         <v>705</v>
       </c>
@@ -4915,7 +5140,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -4924,7 +5149,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -4933,7 +5158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
@@ -4949,16 +5174,8 @@
       <c r="E23" t="s">
         <v>152</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-    </row>
-    <row r="24">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -4974,8 +5191,6 @@
       <c r="E24" t="s">
         <v>155</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
       <c r="I24" t="s">
         <v>706</v>
       </c>
@@ -4986,7 +5201,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -4995,7 +5210,7 @@
         <v>159</v>
       </c>
       <c r="O24" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="P24" t="s">
         <v>160</v>
@@ -5004,17 +5219,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
       <c r="B25" t="s">
         <v>590</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="G25"/>
-      <c r="H25"/>
       <c r="I25" t="s">
         <v>707</v>
       </c>
@@ -5033,10 +5244,8 @@
       <c r="N25" t="s">
         <v>165</v>
       </c>
-      <c r="P25"/>
-      <c r="Q25"/>
-    </row>
-    <row r="26">
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
@@ -5052,12 +5261,8 @@
       <c r="E26" t="s">
         <v>168</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="J26"/>
-      <c r="K26"/>
       <c r="L26" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="M26" t="s">
         <v>169</v>
@@ -5066,7 +5271,7 @@
         <v>170</v>
       </c>
       <c r="O26" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="P26" t="s">
         <v>171</v>
@@ -5075,17 +5280,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>173</v>
       </c>
       <c r="B27" t="s">
         <v>590</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="G27"/>
-      <c r="H27"/>
       <c r="I27" t="s">
         <v>708</v>
       </c>
@@ -5096,7 +5297,7 @@
         <v>175</v>
       </c>
       <c r="L27" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="M27" t="s">
         <v>176</v>
@@ -5105,7 +5306,7 @@
         <v>177</v>
       </c>
       <c r="O27" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="P27" t="s">
         <v>178</v>
@@ -5114,7 +5315,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -5130,8 +5331,6 @@
       <c r="E28" t="s">
         <v>182</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
       <c r="I28" t="s">
         <v>709</v>
       </c>
@@ -5142,7 +5341,7 @@
         <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M28" t="s">
         <v>185</v>
@@ -5151,7 +5350,7 @@
         <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P28" t="s">
         <v>187</v>
@@ -5160,7 +5359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -5176,8 +5375,6 @@
       <c r="E29" t="s">
         <v>191</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
       <c r="I29" t="s">
         <v>709</v>
       </c>
@@ -5188,7 +5385,7 @@
         <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M29" t="s">
         <v>185</v>
@@ -5197,7 +5394,7 @@
         <v>186</v>
       </c>
       <c r="O29" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P29" t="s">
         <v>187</v>
@@ -5206,7 +5403,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -5222,8 +5419,6 @@
       <c r="E30" t="s">
         <v>194</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
       <c r="I30" t="s">
         <v>709</v>
       </c>
@@ -5234,7 +5429,7 @@
         <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="M30" t="s">
         <v>185</v>
@@ -5243,7 +5438,7 @@
         <v>186</v>
       </c>
       <c r="O30" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="P30" t="s">
         <v>187</v>
@@ -5252,7 +5447,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -5268,8 +5463,6 @@
       <c r="E31" t="s">
         <v>197</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
       <c r="I31" t="s">
         <v>710</v>
       </c>
@@ -5280,7 +5473,7 @@
         <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="M31" t="s">
         <v>200</v>
@@ -5289,7 +5482,7 @@
         <v>201</v>
       </c>
       <c r="O31" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="P31" t="s">
         <v>202</v>
@@ -5298,7 +5491,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>204</v>
       </c>
@@ -5314,30 +5507,16 @@
       <c r="E32" t="s">
         <v>206</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-    </row>
-    <row r="33">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>207</v>
       </c>
       <c r="B33" t="s">
         <v>591</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="J33"/>
-      <c r="K33"/>
       <c r="L33" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="M33" t="s">
         <v>208</v>
@@ -5346,7 +5525,7 @@
         <v>209</v>
       </c>
       <c r="O33" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="P33" t="s">
         <v>210</v>
@@ -5355,17 +5534,13 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>212</v>
       </c>
       <c r="B34" t="s">
         <v>590</v>
       </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="G34"/>
-      <c r="H34"/>
       <c r="I34" t="s">
         <v>711</v>
       </c>
@@ -5376,7 +5551,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -5385,7 +5560,7 @@
         <v>216</v>
       </c>
       <c r="O34" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="P34" t="s">
         <v>217</v>
@@ -5394,15 +5569,13 @@
         <v>218</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>219</v>
       </c>
       <c r="B35" t="s">
         <v>590</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
       <c r="F35" t="s">
         <v>680</v>
       </c>
@@ -5422,7 +5595,7 @@
         <v>223</v>
       </c>
       <c r="L35" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M35" t="s">
         <v>224</v>
@@ -5431,7 +5604,7 @@
         <v>225</v>
       </c>
       <c r="O35" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P35" t="s">
         <v>226</v>
@@ -5440,7 +5613,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -5475,7 +5648,7 @@
         <v>223</v>
       </c>
       <c r="L36" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="M36" t="s">
         <v>224</v>
@@ -5484,7 +5657,7 @@
         <v>225</v>
       </c>
       <c r="O36" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P36" t="s">
         <v>226</v>
@@ -5493,7 +5666,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>233</v>
       </c>
@@ -5509,34 +5682,16 @@
       <c r="E37" t="s">
         <v>235</v>
       </c>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>236</v>
       </c>
       <c r="B38" t="s">
         <v>590</v>
       </c>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -5552,8 +5707,6 @@
       <c r="E39" t="s">
         <v>239</v>
       </c>
-      <c r="G39"/>
-      <c r="H39"/>
       <c r="I39" t="s">
         <v>713</v>
       </c>
@@ -5564,7 +5717,7 @@
         <v>241</v>
       </c>
       <c r="L39" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="M39" t="s">
         <v>242</v>
@@ -5573,7 +5726,7 @@
         <v>243</v>
       </c>
       <c r="O39" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="P39" t="s">
         <v>244</v>
@@ -5582,7 +5735,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>246</v>
       </c>
@@ -5598,8 +5751,6 @@
       <c r="E40" t="s">
         <v>248</v>
       </c>
-      <c r="G40"/>
-      <c r="H40"/>
       <c r="I40" t="s">
         <v>714</v>
       </c>
@@ -5610,7 +5761,7 @@
         <v>250</v>
       </c>
       <c r="L40" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="M40" t="s">
         <v>251</v>
@@ -5619,7 +5770,7 @@
         <v>252</v>
       </c>
       <c r="O40" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P40" t="s">
         <v>253</v>
@@ -5628,19 +5779,15 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>255</v>
       </c>
       <c r="B41" t="s">
         <v>590</v>
       </c>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41" t="s">
-        <v>715</v>
+      <c r="I41" s="6" t="s">
+        <v>851</v>
       </c>
       <c r="J41" t="s">
         <v>256</v>
@@ -5649,7 +5796,7 @@
         <v>257</v>
       </c>
       <c r="L41" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="M41" t="s">
         <v>258</v>
@@ -5658,26 +5805,21 @@
         <v>259</v>
       </c>
       <c r="O41" t="s">
-        <v>827</v>
-      </c>
-      <c r="P41"/>
+        <v>824</v>
+      </c>
       <c r="Q41" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>261</v>
       </c>
       <c r="B42" t="s">
         <v>593</v>
       </c>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="G42"/>
-      <c r="H42"/>
       <c r="I42" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J42" t="s">
         <v>262</v>
@@ -5686,7 +5828,7 @@
         <v>263</v>
       </c>
       <c r="L42" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="M42" t="s">
         <v>264</v>
@@ -5695,7 +5837,7 @@
         <v>265</v>
       </c>
       <c r="O42" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P42" t="s">
         <v>266</v>
@@ -5704,21 +5846,15 @@
         <v>267</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>268</v>
       </c>
       <c r="B43" t="s">
         <v>590</v>
       </c>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="J43"/>
-      <c r="K43"/>
       <c r="L43" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="M43" t="s">
         <v>269</v>
@@ -5727,7 +5863,7 @@
         <v>270</v>
       </c>
       <c r="O43" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -5736,7 +5872,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>273</v>
       </c>
@@ -5752,12 +5888,8 @@
       <c r="E44" t="s">
         <v>275</v>
       </c>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="J44"/>
-      <c r="K44"/>
       <c r="L44" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="M44" t="s">
         <v>276</v>
@@ -5766,7 +5898,7 @@
         <v>277</v>
       </c>
       <c r="O44" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="P44" t="s">
         <v>278</v>
@@ -5775,7 +5907,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>280</v>
       </c>
@@ -5791,10 +5923,8 @@
       <c r="E45" t="s">
         <v>282</v>
       </c>
-      <c r="G45"/>
-      <c r="H45"/>
       <c r="I45" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J45" t="s">
         <v>283</v>
@@ -5803,7 +5933,7 @@
         <v>284</v>
       </c>
       <c r="L45" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="M45" t="s">
         <v>285</v>
@@ -5812,7 +5942,7 @@
         <v>286</v>
       </c>
       <c r="O45" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="P45" t="s">
         <v>278</v>
@@ -5821,7 +5951,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>287</v>
       </c>
@@ -5837,10 +5967,8 @@
       <c r="E46" t="s">
         <v>289</v>
       </c>
-      <c r="G46"/>
-      <c r="H46"/>
       <c r="I46" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="J46" t="s">
         <v>290</v>
@@ -5849,7 +5977,7 @@
         <v>291</v>
       </c>
       <c r="L46" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="M46" t="s">
         <v>292</v>
@@ -5858,7 +5986,7 @@
         <v>293</v>
       </c>
       <c r="O46" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="P46" t="s">
         <v>294</v>
@@ -5867,7 +5995,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>296</v>
       </c>
@@ -5883,10 +6011,8 @@
       <c r="E47" t="s">
         <v>298</v>
       </c>
-      <c r="G47"/>
-      <c r="H47"/>
       <c r="I47" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="J47" t="s">
         <v>299</v>
@@ -5895,7 +6021,7 @@
         <v>300</v>
       </c>
       <c r="L47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="M47" t="s">
         <v>301</v>
@@ -5904,7 +6030,7 @@
         <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="P47" t="s">
         <v>301</v>
@@ -5913,19 +6039,15 @@
         <v>302</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>303</v>
       </c>
       <c r="B48" t="s">
         <v>590</v>
       </c>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="G48"/>
-      <c r="H48"/>
       <c r="I48" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J48" t="s">
         <v>304</v>
@@ -5934,7 +6056,7 @@
         <v>305</v>
       </c>
       <c r="L48" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="M48" t="s">
         <v>306</v>
@@ -5943,7 +6065,7 @@
         <v>307</v>
       </c>
       <c r="O48" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="P48" t="s">
         <v>308</v>
@@ -5952,7 +6074,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>310</v>
       </c>
@@ -5968,24 +6090,20 @@
       <c r="E49" t="s">
         <v>312</v>
       </c>
-      <c r="G49"/>
-      <c r="H49"/>
       <c r="I49" t="s">
         <v>313</v>
       </c>
-      <c r="J49"/>
       <c r="K49" t="s">
         <v>313</v>
       </c>
       <c r="L49" t="s">
         <v>313</v>
       </c>
-      <c r="M49"/>
       <c r="N49" t="s">
         <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="P49" t="s">
         <v>308</v>
@@ -5994,7 +6112,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>314</v>
       </c>
@@ -6010,24 +6128,20 @@
       <c r="E50" t="s">
         <v>316</v>
       </c>
-      <c r="G50"/>
-      <c r="H50"/>
       <c r="I50" t="s">
         <v>313</v>
       </c>
-      <c r="J50"/>
       <c r="K50" t="s">
         <v>313</v>
       </c>
       <c r="L50" t="s">
         <v>313</v>
       </c>
-      <c r="M50"/>
       <c r="N50" t="s">
         <v>313</v>
       </c>
       <c r="O50" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="P50" t="s">
         <v>308</v>
@@ -6036,7 +6150,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>317</v>
       </c>
@@ -6052,10 +6166,8 @@
       <c r="E51" t="s">
         <v>319</v>
       </c>
-      <c r="G51"/>
-      <c r="H51"/>
       <c r="I51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6064,7 +6176,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6073,7 +6185,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6082,19 +6194,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>326</v>
       </c>
       <c r="B52" t="s">
         <v>590</v>
       </c>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="G52"/>
-      <c r="H52"/>
       <c r="I52" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J52" t="s">
         <v>327</v>
@@ -6103,7 +6211,7 @@
         <v>328</v>
       </c>
       <c r="L52" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="M52" t="s">
         <v>329</v>
@@ -6112,7 +6220,7 @@
         <v>330</v>
       </c>
       <c r="O52" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="P52" t="s">
         <v>331</v>
@@ -6121,7 +6229,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>333</v>
       </c>
@@ -6137,8 +6245,6 @@
       <c r="E53" t="s">
         <v>335</v>
       </c>
-      <c r="G53"/>
-      <c r="H53"/>
       <c r="I53" t="s">
         <v>165</v>
       </c>
@@ -6167,7 +6273,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>336</v>
       </c>
@@ -6220,7 +6326,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>341</v>
       </c>
@@ -6236,39 +6342,32 @@
       <c r="E55" t="s">
         <v>343</v>
       </c>
-      <c r="G55"/>
-      <c r="H55"/>
       <c r="I55" t="s">
         <v>165</v>
       </c>
-      <c r="J55"/>
       <c r="K55" t="s">
         <v>165</v>
       </c>
       <c r="L55" t="s">
         <v>165</v>
       </c>
-      <c r="M55"/>
       <c r="N55" t="s">
         <v>165</v>
       </c>
       <c r="O55" t="s">
         <v>165</v>
       </c>
-      <c r="P55"/>
       <c r="Q55" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>344</v>
       </c>
       <c r="B56" t="s">
         <v>590</v>
       </c>
-      <c r="D56"/>
-      <c r="E56"/>
       <c r="F56" t="s">
         <v>683</v>
       </c>
@@ -6306,7 +6405,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>348</v>
       </c>
@@ -6359,15 +6458,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>354</v>
       </c>
       <c r="B58" t="s">
         <v>590</v>
       </c>
-      <c r="D58"/>
-      <c r="E58"/>
       <c r="F58" t="s">
         <v>685</v>
       </c>
@@ -6405,7 +6502,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -6421,10 +6518,8 @@
       <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
       <c r="I59" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J59" t="s">
         <v>361</v>
@@ -6433,7 +6528,7 @@
         <v>362</v>
       </c>
       <c r="L59" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="M59" t="s">
         <v>363</v>
@@ -6442,7 +6537,7 @@
         <v>364</v>
       </c>
       <c r="O59" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="P59" t="s">
         <v>365</v>
@@ -6451,7 +6546,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>367</v>
       </c>
@@ -6467,10 +6562,8 @@
       <c r="E60" t="s">
         <v>369</v>
       </c>
-      <c r="G60"/>
-      <c r="H60"/>
       <c r="I60" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="J60" t="s">
         <v>370</v>
@@ -6479,7 +6572,7 @@
         <v>371</v>
       </c>
       <c r="L60" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="M60" t="s">
         <v>372</v>
@@ -6488,7 +6581,7 @@
         <v>373</v>
       </c>
       <c r="O60" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="P60" t="s">
         <v>374</v>
@@ -6497,7 +6590,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>376</v>
       </c>
@@ -6513,10 +6606,8 @@
       <c r="E61" t="s">
         <v>378</v>
       </c>
-      <c r="G61"/>
-      <c r="H61"/>
       <c r="I61" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J61" t="s">
         <v>379</v>
@@ -6525,7 +6616,7 @@
         <v>380</v>
       </c>
       <c r="L61" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="M61" t="s">
         <v>381</v>
@@ -6534,7 +6625,7 @@
         <v>382</v>
       </c>
       <c r="O61" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="P61" t="s">
         <v>383</v>
@@ -6543,15 +6634,13 @@
         <v>384</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>385</v>
       </c>
       <c r="B62" t="s">
         <v>590</v>
       </c>
-      <c r="D62"/>
-      <c r="E62"/>
       <c r="F62" t="s">
         <v>686</v>
       </c>
@@ -6561,22 +6650,14 @@
       <c r="H62" t="s">
         <v>387</v>
       </c>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>388</v>
       </c>
       <c r="B63" t="s">
         <v>590</v>
       </c>
-      <c r="D63"/>
-      <c r="E63"/>
       <c r="F63" t="s">
         <v>687</v>
       </c>
@@ -6614,7 +6695,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>391</v>
       </c>
@@ -6630,10 +6711,8 @@
       <c r="E64" t="s">
         <v>393</v>
       </c>
-      <c r="G64"/>
-      <c r="H64"/>
       <c r="I64" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J64" t="s">
         <v>394</v>
@@ -6642,7 +6721,7 @@
         <v>395</v>
       </c>
       <c r="L64" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="M64" t="s">
         <v>396</v>
@@ -6651,7 +6730,7 @@
         <v>397</v>
       </c>
       <c r="O64" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="P64" t="s">
         <v>398</v>
@@ -6660,7 +6739,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>400</v>
       </c>
@@ -6676,16 +6755,8 @@
       <c r="E65" t="s">
         <v>402</v>
       </c>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="J65"/>
-      <c r="K65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-    </row>
-    <row r="66">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>403</v>
       </c>
@@ -6701,16 +6772,8 @@
       <c r="E66" t="s">
         <v>405</v>
       </c>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="J66"/>
-      <c r="K66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -6726,16 +6789,8 @@
       <c r="E67" t="s">
         <v>408</v>
       </c>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="J67"/>
-      <c r="K67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>409</v>
       </c>
@@ -6751,16 +6806,8 @@
       <c r="E68" t="s">
         <v>411</v>
       </c>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="J68"/>
-      <c r="K68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-    </row>
-    <row r="69">
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>412</v>
       </c>
@@ -6770,25 +6817,17 @@
       <c r="C69" t="s">
         <v>651</v>
       </c>
-      <c r="D69"/>
       <c r="E69" t="s">
         <v>413</v>
       </c>
-      <c r="G69"/>
-      <c r="H69"/>
       <c r="I69" t="s">
-        <v>727</v>
-      </c>
-      <c r="J69"/>
+        <v>726</v>
+      </c>
       <c r="K69" t="s">
         <v>414</v>
       </c>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-    </row>
-    <row r="70">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>415</v>
       </c>
@@ -6798,25 +6837,17 @@
       <c r="C70" t="s">
         <v>652</v>
       </c>
-      <c r="D70"/>
       <c r="E70" t="s">
         <v>416</v>
       </c>
-      <c r="G70"/>
-      <c r="H70"/>
       <c r="I70" t="s">
-        <v>728</v>
-      </c>
-      <c r="J70"/>
+        <v>727</v>
+      </c>
       <c r="K70" t="s">
         <v>417</v>
       </c>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-    </row>
-    <row r="71">
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>418</v>
       </c>
@@ -6826,28 +6857,23 @@
       <c r="C71" t="s">
         <v>653</v>
       </c>
-      <c r="D71"/>
       <c r="E71" t="s">
         <v>419</v>
       </c>
-      <c r="G71"/>
-      <c r="H71"/>
       <c r="I71" t="s">
-        <v>729</v>
-      </c>
-      <c r="J71"/>
+        <v>728</v>
+      </c>
       <c r="K71" t="s">
         <v>420</v>
       </c>
       <c r="L71" t="s">
-        <v>783</v>
-      </c>
-      <c r="M71"/>
+        <v>780</v>
+      </c>
       <c r="N71" t="s">
         <v>421</v>
       </c>
       <c r="O71" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="P71" t="s">
         <v>422</v>
@@ -6856,7 +6882,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>424</v>
       </c>
@@ -6872,24 +6898,20 @@
       <c r="E72" t="s">
         <v>426</v>
       </c>
-      <c r="G72"/>
-      <c r="H72"/>
       <c r="I72" t="s">
-        <v>730</v>
-      </c>
-      <c r="J72"/>
+        <v>729</v>
+      </c>
       <c r="K72" t="s">
         <v>420</v>
       </c>
       <c r="L72" t="s">
-        <v>784</v>
-      </c>
-      <c r="M72"/>
+        <v>781</v>
+      </c>
       <c r="N72" t="s">
         <v>427</v>
       </c>
       <c r="O72" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="P72" t="s">
         <v>422</v>
@@ -6898,21 +6920,15 @@
         <v>428</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>429</v>
       </c>
       <c r="B73" t="s">
         <v>590</v>
       </c>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="J73"/>
-      <c r="K73"/>
       <c r="L73" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="M73" t="s">
         <v>430</v>
@@ -6920,10 +6936,8 @@
       <c r="N73" t="s">
         <v>431</v>
       </c>
-      <c r="P73"/>
-      <c r="Q73"/>
-    </row>
-    <row r="74">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>432</v>
       </c>
@@ -6939,16 +6953,8 @@
       <c r="E74" t="s">
         <v>434</v>
       </c>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="J74"/>
-      <c r="K74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>435</v>
       </c>
@@ -6964,16 +6970,8 @@
       <c r="E75" t="s">
         <v>437</v>
       </c>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="J75"/>
-      <c r="K75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>438</v>
       </c>
@@ -6989,12 +6987,8 @@
       <c r="E76" t="s">
         <v>440</v>
       </c>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="J76"/>
-      <c r="K76"/>
       <c r="L76" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="M76" t="s">
         <v>441</v>
@@ -7002,10 +6996,8 @@
       <c r="N76" t="s">
         <v>442</v>
       </c>
-      <c r="P76"/>
-      <c r="Q76"/>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>443</v>
       </c>
@@ -7021,12 +7013,8 @@
       <c r="E77" t="s">
         <v>445</v>
       </c>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="J77"/>
-      <c r="K77"/>
       <c r="L77" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="M77" t="s">
         <v>446</v>
@@ -7034,10 +7022,8 @@
       <c r="N77" t="s">
         <v>447</v>
       </c>
-      <c r="P77"/>
-      <c r="Q77"/>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>448</v>
       </c>
@@ -7047,20 +7033,11 @@
       <c r="C78" t="s">
         <v>659</v>
       </c>
-      <c r="D78"/>
       <c r="E78" t="s">
         <v>449</v>
       </c>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-    </row>
-    <row r="79">
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>450</v>
       </c>
@@ -7076,26 +7053,20 @@
       <c r="E79" t="s">
         <v>452</v>
       </c>
-      <c r="G79"/>
-      <c r="H79"/>
       <c r="I79" t="s">
-        <v>731</v>
-      </c>
-      <c r="J79"/>
+        <v>730</v>
+      </c>
       <c r="K79" t="s">
         <v>453</v>
       </c>
       <c r="L79" t="s">
-        <v>788</v>
-      </c>
-      <c r="M79"/>
+        <v>785</v>
+      </c>
       <c r="N79" t="s">
         <v>277</v>
       </c>
-      <c r="P79"/>
-      <c r="Q79"/>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>454</v>
       </c>
@@ -7111,10 +7082,8 @@
       <c r="E80" t="s">
         <v>456</v>
       </c>
-      <c r="G80"/>
-      <c r="H80"/>
       <c r="I80" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J80" t="s">
         <v>457</v>
@@ -7123,7 +7092,7 @@
         <v>458</v>
       </c>
       <c r="L80" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="M80" t="s">
         <v>459</v>
@@ -7132,7 +7101,7 @@
         <v>460</v>
       </c>
       <c r="O80" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="P80" t="s">
         <v>461</v>
@@ -7141,7 +7110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>463</v>
       </c>
@@ -7157,30 +7126,16 @@
       <c r="E81" t="s">
         <v>465</v>
       </c>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="J81"/>
-      <c r="K81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>466</v>
       </c>
       <c r="B82" t="s">
         <v>590</v>
       </c>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="J82"/>
-      <c r="K82"/>
       <c r="L82" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7189,7 +7144,7 @@
         <v>270</v>
       </c>
       <c r="O82" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="P82" t="s">
         <v>468</v>
@@ -7198,15 +7153,13 @@
         <v>469</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>470</v>
       </c>
       <c r="B83" t="s">
         <v>590</v>
       </c>
-      <c r="D83"/>
-      <c r="E83"/>
       <c r="F83" t="s">
         <v>688</v>
       </c>
@@ -7244,7 +7197,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>473</v>
       </c>
@@ -7269,14 +7222,8 @@
       <c r="H84" t="s">
         <v>477</v>
       </c>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="P84"/>
-      <c r="Q84"/>
-    </row>
-    <row r="85">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>478</v>
       </c>
@@ -7301,14 +7248,8 @@
       <c r="H85" t="s">
         <v>481</v>
       </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="P85"/>
-      <c r="Q85"/>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>482</v>
       </c>
@@ -7333,14 +7274,8 @@
       <c r="H86" t="s">
         <v>486</v>
       </c>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="M86"/>
-      <c r="N86"/>
-      <c r="P86"/>
-      <c r="Q86"/>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>487</v>
       </c>
@@ -7356,16 +7291,8 @@
       <c r="E87" t="s">
         <v>489</v>
       </c>
-      <c r="G87"/>
-      <c r="H87"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="M87"/>
-      <c r="N87"/>
-      <c r="P87"/>
-      <c r="Q87"/>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>490</v>
       </c>
@@ -7381,16 +7308,8 @@
       <c r="E88" t="s">
         <v>492</v>
       </c>
-      <c r="G88"/>
-      <c r="H88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="P88"/>
-      <c r="Q88"/>
-    </row>
-    <row r="89">
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>493</v>
       </c>
@@ -7415,14 +7334,8 @@
       <c r="H89" t="s">
         <v>497</v>
       </c>
-      <c r="J89"/>
-      <c r="K89"/>
-      <c r="M89"/>
-      <c r="N89"/>
-      <c r="P89"/>
-      <c r="Q89"/>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>498</v>
       </c>
@@ -7438,10 +7351,8 @@
       <c r="E90" t="s">
         <v>500</v>
       </c>
-      <c r="G90"/>
-      <c r="H90"/>
       <c r="I90" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J90" t="s">
         <v>501</v>
@@ -7450,7 +7361,7 @@
         <v>502</v>
       </c>
       <c r="L90" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="M90" t="s">
         <v>503</v>
@@ -7459,7 +7370,7 @@
         <v>504</v>
       </c>
       <c r="O90" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="P90" t="s">
         <v>505</v>
@@ -7468,7 +7379,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>507</v>
       </c>
@@ -7484,16 +7395,8 @@
       <c r="E91" t="s">
         <v>509</v>
       </c>
-      <c r="G91"/>
-      <c r="H91"/>
-      <c r="J91"/>
-      <c r="K91"/>
-      <c r="M91"/>
-      <c r="N91"/>
-      <c r="P91"/>
-      <c r="Q91"/>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>510</v>
       </c>
@@ -7509,48 +7412,24 @@
       <c r="E92" t="s">
         <v>512</v>
       </c>
-      <c r="G92"/>
-      <c r="H92"/>
-      <c r="J92"/>
-      <c r="K92"/>
-      <c r="M92"/>
-      <c r="N92"/>
-      <c r="P92"/>
-      <c r="Q92"/>
-    </row>
-    <row r="93">
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>513</v>
       </c>
       <c r="B93" t="s">
         <v>605</v>
       </c>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="G93"/>
-      <c r="H93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="P93"/>
-      <c r="Q93"/>
-    </row>
-    <row r="94">
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>514</v>
       </c>
       <c r="B94" t="s">
         <v>603</v>
       </c>
-      <c r="D94"/>
-      <c r="E94"/>
-      <c r="G94"/>
-      <c r="H94"/>
-      <c r="J94"/>
-      <c r="K94"/>
       <c r="L94" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="M94" t="s">
         <v>515</v>
@@ -7558,10 +7437,8 @@
       <c r="N94" t="s">
         <v>516</v>
       </c>
-      <c r="P94"/>
-      <c r="Q94"/>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>517</v>
       </c>
@@ -7577,10 +7454,8 @@
       <c r="E95" t="s">
         <v>519</v>
       </c>
-      <c r="G95"/>
-      <c r="H95"/>
       <c r="I95" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J95" t="s">
         <v>520</v>
@@ -7589,7 +7464,7 @@
         <v>521</v>
       </c>
       <c r="L95" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="M95" t="s">
         <v>522</v>
@@ -7598,7 +7473,7 @@
         <v>523</v>
       </c>
       <c r="O95" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="P95" t="s">
         <v>524</v>
@@ -7607,7 +7482,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>526</v>
       </c>
@@ -7623,10 +7498,8 @@
       <c r="E96" t="s">
         <v>528</v>
       </c>
-      <c r="G96"/>
-      <c r="H96"/>
       <c r="I96" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J96" t="s">
         <v>529</v>
@@ -7635,7 +7508,7 @@
         <v>530</v>
       </c>
       <c r="L96" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="M96" t="s">
         <v>531</v>
@@ -7644,7 +7517,7 @@
         <v>532</v>
       </c>
       <c r="O96" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="P96" t="s">
         <v>533</v>
@@ -7653,7 +7526,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>535</v>
       </c>
@@ -7669,10 +7542,8 @@
       <c r="E97" t="s">
         <v>537</v>
       </c>
-      <c r="G97"/>
-      <c r="H97"/>
       <c r="I97" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J97" t="s">
         <v>538</v>
@@ -7681,7 +7552,7 @@
         <v>539</v>
       </c>
       <c r="L97" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M97" t="s">
         <v>467</v>
@@ -7690,7 +7561,7 @@
         <v>270</v>
       </c>
       <c r="O97" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="P97" t="s">
         <v>540</v>
@@ -7699,7 +7570,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>542</v>
       </c>
@@ -7715,10 +7586,8 @@
       <c r="E98" t="s">
         <v>544</v>
       </c>
-      <c r="G98"/>
-      <c r="H98"/>
       <c r="I98" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J98" t="s">
         <v>545</v>
@@ -7727,7 +7596,7 @@
         <v>546</v>
       </c>
       <c r="L98" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="M98" t="s">
         <v>547</v>
@@ -7736,7 +7605,7 @@
         <v>548</v>
       </c>
       <c r="O98" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="P98" t="s">
         <v>549</v>
@@ -7745,7 +7614,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>551</v>
       </c>
@@ -7761,12 +7630,8 @@
       <c r="E99" t="s">
         <v>553</v>
       </c>
-      <c r="G99"/>
-      <c r="H99"/>
-      <c r="J99"/>
-      <c r="K99"/>
       <c r="L99" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="M99" t="s">
         <v>554</v>
@@ -7775,7 +7640,7 @@
         <v>555</v>
       </c>
       <c r="O99" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="P99" t="s">
         <v>556</v>
@@ -7784,7 +7649,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>558</v>
       </c>
@@ -7800,12 +7665,8 @@
       <c r="E100" t="s">
         <v>560</v>
       </c>
-      <c r="G100"/>
-      <c r="H100"/>
-      <c r="J100"/>
-      <c r="K100"/>
       <c r="L100" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="M100" t="s">
         <v>561</v>
@@ -7813,10 +7674,8 @@
       <c r="N100" t="s">
         <v>562</v>
       </c>
-      <c r="P100"/>
-      <c r="Q100"/>
-    </row>
-    <row r="101">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>563</v>
       </c>
@@ -7832,10 +7691,8 @@
       <c r="E101" t="s">
         <v>565</v>
       </c>
-      <c r="G101"/>
-      <c r="H101"/>
       <c r="I101" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="J101" t="s">
         <v>566</v>
@@ -7844,7 +7701,7 @@
         <v>567</v>
       </c>
       <c r="L101" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M101" t="s">
         <v>568</v>
@@ -7853,7 +7710,7 @@
         <v>569</v>
       </c>
       <c r="O101" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="P101" t="s">
         <v>570</v>
@@ -7862,7 +7719,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>572</v>
       </c>
@@ -7878,10 +7735,8 @@
       <c r="E102" t="s">
         <v>574</v>
       </c>
-      <c r="G102"/>
-      <c r="H102"/>
       <c r="I102" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J102" t="s">
         <v>575</v>
@@ -7890,7 +7745,7 @@
         <v>576</v>
       </c>
       <c r="L102" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="M102" t="s">
         <v>577</v>
@@ -7899,7 +7754,7 @@
         <v>578</v>
       </c>
       <c r="O102" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="P102" t="s">
         <v>579</v>
@@ -7908,7 +7763,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>581</v>
       </c>
@@ -7924,10 +7779,8 @@
       <c r="E103" t="s">
         <v>583</v>
       </c>
-      <c r="G103"/>
-      <c r="H103"/>
       <c r="I103" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J103" t="s">
         <v>584</v>
@@ -7936,7 +7789,7 @@
         <v>585</v>
       </c>
       <c r="L103" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="M103" t="s">
         <v>586</v>
@@ -7945,7 +7798,7 @@
         <v>587</v>
       </c>
       <c r="O103" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="P103" t="s">
         <v>588</v>
@@ -7955,7 +7808,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q2"/>
+  <autoFilter ref="A2:Q2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>